--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44512</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>43635</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45007</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>43635</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>44623</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>43581</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44447</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>44741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44816</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>44816</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43684</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>44088</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44323</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44473</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>44511</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>45012</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>45106</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>45118</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43363</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43451</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43473</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43482</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43490</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43524</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43556</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43558</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43581</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>43588</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43595</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43606</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43635</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43635</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43696</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43703</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>43707</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>43710</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43710</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43718</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43718</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43731</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>43731</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>43738</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43738</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>43741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>43748</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>43752</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43752</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43752</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>43755</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>43763</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>43775</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>43775</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         <v>43777</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43781</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43782</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43782</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43795</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43795</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43867</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43867</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43896</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43999</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44000</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>44014</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44016</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44048</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>44049</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44057</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>44078</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44083</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>44084</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44092</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44092</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         <v>44092</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44092</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44092</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44092</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44092</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>44106</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>44130</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>44137</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44137</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>44145</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7257,7 +7257,7 @@
         <v>44159</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         <v>44159</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>44160</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>44167</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>44186</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>44221</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44230</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>44266</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>44267</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>44314</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>44340</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>44368</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>44447</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>44447</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>44456</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>44470</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>44473</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8241,7 +8241,7 @@
         <v>44473</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44512</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44558</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>44558</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44601</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>44622</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>44624</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44624</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44649</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44671</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44680</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44692</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44754</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>44770</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44771</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>44781</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44789</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>44805</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44810</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44810</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44837</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>44837</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>44873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>44881</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44883</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44900</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44967</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44986</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44994</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>45007</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45007</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45007</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>45007</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>45007</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>45007</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>45043</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>45044</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>45050</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>45050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>45069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>45072</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>45072</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>45084</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>45097</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>45099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>45117</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>45117</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>45117</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45118</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45118</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45127</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>45127</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45147</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>45163</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>45163</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,13 +830,13 @@
         <v>8.4</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -851,26 +851,37 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Knärot
+Dofttaggsvamp
+Flattoppad klubbsvamp
+Gultoppig fingersvamp
+Talltita
 Ullticka
 Vedtrappmossa
+Äggvaxskivling
+Anisspindling
 Bronshjon
+Fjällig taggsvamp s.str.
 Korallblylav
 Mörk husmossa
+Olivspindling
+Rödgul trumpetsvamp
 Skinnlav
 Skogshakmossa
+Sotriska
 Spindelblomster
 Svart trolldruva
+Svavelriska
 Tibast
 Tvåblad
 Underviol
@@ -912,14 +923,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 65026-2021</t>
+          <t>A 13746-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44512</v>
+        <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,20 +942,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>14.7</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -959,12 +975,112 @@
         <v>5</v>
       </c>
       <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>12</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Koralltaggsvamp
+Orange taggsvamp
+Talltita
+Ullticka
+Brandticka
+Bronshjon
+Svavelriska
+Thomsons trägnagare
+Vedticka
+Kopparödla
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13746-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13746-2023.png")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 13746-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13746-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13746-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13746-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13746-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 65026-2021</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44512</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>4</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
         <v>9</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Brödtaggsvamp
 Knärot
@@ -977,96 +1093,96 @@
 Trådticka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 65026-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 65026-2021.png")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 65026-2021.png")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 65026-2021.docx")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 65026-2021.docx")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 65026-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 65026-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 30593-2019</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>43635</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="C7" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>4.5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>3</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>2</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>2</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>2</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>6</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Rynkskinn
@@ -1076,96 +1192,96 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 30593-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 30593-2019.png")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 30593-2019.png")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 30593-2019.docx")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 30593-2019.docx")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 30593-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 30593-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 13740-2023</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45007</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>2.7</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>4</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>5</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Garnlav
@@ -1174,946 +1290,872 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13740-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13740-2023.png")</f>
         <v/>
       </c>
-      <c r="U7">
+      <c r="U8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 13740-2023.png")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13740-2023.docx")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13740-2023.docx")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13740-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13740-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 13749-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45007</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp
+Fjällig taggsvamp s.str.
+Rödgul trumpetsvamp
+Svavelriska
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13749-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13749-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13749-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13749-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13749-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13749-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 13750-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45007</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp
+Talltita
+Fjällig taggsvamp s.str.
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13750-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13750-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13750-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13750-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13750-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13750-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 30590-2019</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>43635</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C11" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G11" t="n">
         <v>7.2</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Kortskaftad ärgspik
 Plattlummer</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 30590-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 30590-2019.png")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 30590-2019.png")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 30590-2019.docx")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 30590-2019.docx")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 30590-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 30590-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 10436-2022</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44623</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C12" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>6.3</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I12" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q12" t="n">
         <v>3</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Björksplintborre
 Vedticka</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 10436-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 10436-2022.png")</f>
         <v/>
       </c>
-      <c r="U9">
+      <c r="U12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 10436-2022.png")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 10436-2022.docx")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 10436-2022.docx")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 10436-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 10436-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 21731-2019</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>43581</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G13" t="n">
         <v>3.8</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H13" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Tvåblad
 Revlummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 21731-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 21731-2019.png")</f>
         <v/>
       </c>
-      <c r="U10">
+      <c r="U13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 21731-2019.png")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 21731-2019.docx")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 21731-2019.docx")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 21731-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 21731-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 47483-2021</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44447</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C14" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>6.9</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q14" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 47483-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 47483-2021.png")</f>
         <v/>
       </c>
-      <c r="U11">
+      <c r="U14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 47483-2021.png")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 47483-2021.docx")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 47483-2021.docx")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 47483-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 47483-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 27216-2022</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44741</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G15" t="n">
         <v>6.4</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Plattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 27216-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 27216-2022.png")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 27216-2022.docx")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 27216-2022.docx")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 27216-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 27216-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 38862-2022</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>44816</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C16" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>5.1</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Jättesvampmal</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38862-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38862-2022.png")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38862-2022.docx")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38862-2022.docx")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38862-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38862-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 38855-2022</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44816</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C17" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>7.1</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Blåsippa</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38855-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38855-2022.png")</f>
         <v/>
       </c>
-      <c r="U14">
+      <c r="U17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 38855-2022.png")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38855-2022.docx")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38855-2022.docx")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38855-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38855-2022.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 13750-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45007</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Talltita
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13750-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13750-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13750-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13750-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13750-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13750-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 38174-2019</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>43684</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>14</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Ullticka</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38174-2019.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38174-2019.png")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38174-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38174-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38174-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38174-2019.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 44963-2020</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44088</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Slåtterfibbla</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 44963-2020.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 44963-2020.png")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 44963-2020.docx")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 44963-2020.docx")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 44963-2020.docx")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 44963-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 22096-2021</t>
+          <t>A 38174-2019</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44323</v>
+        <v>43684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2125,25 +2167,20 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2158,56 +2195,52 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 22096-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38174-2019.xlsx")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 22096-2021.png")</f>
-        <v/>
-      </c>
-      <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 22096-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38174-2019.png")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 22096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38174-2019.docx")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 22096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38174-2019.docx")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 22096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38174-2019.docx")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 22096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38174-2019.docx")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 54828-2021</t>
+          <t>A 44963-2020</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44473</v>
+        <v>44088</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2219,25 +2252,20 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2252,56 +2280,52 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 54828-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 44963-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 54828-2021.png")</f>
-        <v/>
-      </c>
-      <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 54828-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 44963-2020.png")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 54828-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 44963-2020.docx")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 54828-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 44963-2020.docx")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 54828-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 44963-2020.docx")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 54828-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 44963-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 64604-2021</t>
+          <t>A 22096-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44511</v>
+        <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2315,24 +2339,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>1.7</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
@@ -2343,55 +2367,59 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Bågpraktmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 64604-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 22096-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 64604-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 22096-2021.png")</f>
+        <v/>
+      </c>
+      <c r="U20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 22096-2021.png")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 64604-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 22096-2021.docx")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 64604-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 22096-2021.docx")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 64604-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 22096-2021.docx")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 64604-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 22096-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 14358-2023</t>
+          <t>A 54828-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45012</v>
+        <v>44473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2405,24 +2433,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
@@ -2433,55 +2461,59 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 14358-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 54828-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 14358-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 54828-2021.png")</f>
+        <v/>
+      </c>
+      <c r="U21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 54828-2021.png")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 14358-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 54828-2021.docx")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 14358-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 54828-2021.docx")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 14358-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 54828-2021.docx")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 14358-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 54828-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 29400-2023</t>
+          <t>A 64604-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45106</v>
+        <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2493,20 +2525,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>6.8</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2518,59 +2555,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bågpraktmossa</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 29400-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 64604-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 29400-2023.png")</f>
-        <v/>
-      </c>
-      <c r="U22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 29400-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 64604-2021.png")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 29400-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 64604-2021.docx")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 29400-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 64604-2021.docx")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 29400-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 64604-2021.docx")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 29400-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 64604-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 33491-2023</t>
+          <t>A 13741-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45118</v>
+        <v>45007</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2584,17 +2617,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>32.3</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2622,45 +2655,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 33491-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13741-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 33491-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13741-2023.png")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 33491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13741-2023.docx")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 33491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13741-2023.docx")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 33491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13741-2023.docx")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 33491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13741-2023.docx")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 45906-2018</t>
+          <t>A 14358-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43363</v>
+        <v>45012</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,14 +2705,19 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2703,21 +2741,49 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 14358-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 14358-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 14358-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 14358-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 14358-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 14358-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 69675-2018</t>
+          <t>A 29400-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43444</v>
+        <v>45106</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2730,10 +2796,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>6.8</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2742,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2754,27 +2820,59 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 29400-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 29400-2023.png")</f>
+        <v/>
+      </c>
+      <c r="U25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 29400-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 29400-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 29400-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 29400-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 29400-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 70699-2018</t>
+          <t>A 33491-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43451</v>
+        <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,11 +2884,16 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>1.6</v>
+        <v>32.3</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2817,21 +2920,49 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 33491-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 33491-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 33491-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 33491-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 33491-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 33491-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 867-2019</t>
+          <t>A 45906-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43472</v>
+        <v>43363</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2844,7 +2975,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7.2</v>
+        <v>3.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2881,14 +3012,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 1426-2019</t>
+          <t>A 69675-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43473</v>
+        <v>43444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2901,7 +3032,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2938,14 +3069,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 3794-2019</t>
+          <t>A 70699-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43482</v>
+        <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2958,7 +3089,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2995,14 +3126,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 3796-2019</t>
+          <t>A 867-2019</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43482</v>
+        <v>43472</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3015,7 +3146,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>7.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3052,14 +3183,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 5746-2019</t>
+          <t>A 1426-2019</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43490</v>
+        <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3072,7 +3203,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3109,14 +3240,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 12538-2019</t>
+          <t>A 3794-2019</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43524</v>
+        <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3129,7 +3260,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>8.699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3166,14 +3297,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 17691-2019</t>
+          <t>A 3796-2019</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43556</v>
+        <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3185,13 +3316,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3228,14 +3354,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 18095-2019</t>
+          <t>A 5746-2019</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43558</v>
+        <v>43490</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3247,13 +3373,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3290,14 +3411,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 18085-2019</t>
+          <t>A 12538-2019</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43558</v>
+        <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3309,13 +3430,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3352,14 +3468,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 19095-2019</t>
+          <t>A 17691-2019</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43564</v>
+        <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,8 +3487,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3409,14 +3530,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 21734-2019</t>
+          <t>A 18095-2019</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43581</v>
+        <v>43558</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3434,7 +3555,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3467,38 +3588,18 @@
         <v>0</v>
       </c>
       <c r="R37" s="2" t="inlineStr"/>
-      <c r="U37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 21734-2019.png")</f>
-        <v/>
-      </c>
-      <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 21734-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 21734-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 21734-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 21734-2019.docx")</f>
-        <v/>
-      </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 22734-2019</t>
+          <t>A 18085-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43588</v>
+        <v>43558</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3516,7 +3617,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,14 +3654,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 23881-2019</t>
+          <t>A 19095-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43595</v>
+        <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3573,7 +3674,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3610,14 +3711,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 24756-2019</t>
+          <t>A 21734-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43601</v>
+        <v>43581</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3635,7 +3736,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3668,18 +3769,38 @@
         <v>0</v>
       </c>
       <c r="R40" s="2" t="inlineStr"/>
+      <c r="U40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 21734-2019.png")</f>
+        <v/>
+      </c>
+      <c r="V40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 21734-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="W40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 21734-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="X40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 21734-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="Y40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 21734-2019.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 25517-2019</t>
+          <t>A 22734-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43606</v>
+        <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3697,7 +3818,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3734,14 +3855,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30591-2019</t>
+          <t>A 23881-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43635</v>
+        <v>43595</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3753,13 +3874,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3796,14 +3912,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 30592-2019</t>
+          <t>A 24756-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43635</v>
+        <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3821,7 +3937,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3858,14 +3974,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 40385-2019</t>
+          <t>A 25517-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43696</v>
+        <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3883,7 +3999,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3916,38 +4032,18 @@
         <v>0</v>
       </c>
       <c r="R44" s="2" t="inlineStr"/>
-      <c r="U44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 40385-2019.png")</f>
-        <v/>
-      </c>
-      <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 40385-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 40385-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 40385-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 40385-2019.docx")</f>
-        <v/>
-      </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 42253-2019</t>
+          <t>A 30591-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43703</v>
+        <v>43635</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3965,7 +4061,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4002,14 +4098,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 44791-2019</t>
+          <t>A 30592-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43707</v>
+        <v>43635</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4021,8 +4117,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>14.7</v>
+        <v>3.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4059,14 +4160,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 44196-2019</t>
+          <t>A 40385-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43710</v>
+        <v>43696</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4084,7 +4185,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4117,18 +4218,38 @@
         <v>0</v>
       </c>
       <c r="R47" s="2" t="inlineStr"/>
+      <c r="U47">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 40385-2019.png")</f>
+        <v/>
+      </c>
+      <c r="V47">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 40385-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="W47">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 40385-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="X47">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 40385-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="Y47">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 40385-2019.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 44218-2019</t>
+          <t>A 42253-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43710</v>
+        <v>43703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4146,7 +4267,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4183,14 +4304,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 46153-2019</t>
+          <t>A 44791-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43718</v>
+        <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4202,13 +4323,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>14.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4245,14 +4361,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 46161-2019</t>
+          <t>A 44196-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43718</v>
+        <v>43710</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4270,7 +4386,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4307,14 +4423,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 49296-2019</t>
+          <t>A 44218-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43731</v>
+        <v>43710</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4369,14 +4485,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 49361-2019</t>
+          <t>A 46153-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43731</v>
+        <v>43718</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4431,14 +4547,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 50696-2019</t>
+          <t>A 46161-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43738</v>
+        <v>43718</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4456,7 +4572,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4493,14 +4609,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 50694-2019</t>
+          <t>A 49296-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43738</v>
+        <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4512,8 +4628,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4550,14 +4671,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 51927-2019</t>
+          <t>A 49361-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43741</v>
+        <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4612,14 +4733,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 53312-2019</t>
+          <t>A 50696-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43748</v>
+        <v>43738</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4631,8 +4752,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4669,14 +4795,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 53850-2019</t>
+          <t>A 50694-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43752</v>
+        <v>43738</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4688,13 +4814,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4731,14 +4852,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 53908-2019</t>
+          <t>A 51927-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43752</v>
+        <v>43741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4756,7 +4877,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4793,14 +4914,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 53930-2019</t>
+          <t>A 53312-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43752</v>
+        <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4812,13 +4933,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4855,14 +4971,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 53975-2019</t>
+          <t>A 53850-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4880,7 +4996,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.3</v>
+        <v>6.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4917,14 +5033,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 54934-2019</t>
+          <t>A 53908-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43755</v>
+        <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4936,8 +5052,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4974,14 +5095,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 56578-2019</t>
+          <t>A 53930-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43763</v>
+        <v>43752</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4999,7 +5120,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>7.1</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5036,14 +5157,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 59116-2019</t>
+          <t>A 53975-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43775</v>
+        <v>43752</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5055,8 +5176,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5093,14 +5219,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 59115-2019</t>
+          <t>A 54934-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43775</v>
+        <v>43755</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5113,7 +5239,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5150,14 +5276,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 60049-2019</t>
+          <t>A 56578-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43777</v>
+        <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5175,7 +5301,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>7.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5212,14 +5338,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 60262-2019</t>
+          <t>A 59116-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43780</v>
+        <v>43775</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5231,13 +5357,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5274,14 +5395,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 60552-2019</t>
+          <t>A 59115-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43781</v>
+        <v>43775</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5293,13 +5414,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5336,14 +5452,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 61168-2019</t>
+          <t>A 60049-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43782</v>
+        <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5355,8 +5471,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5393,14 +5514,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 62091-2019</t>
+          <t>A 60262-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43782</v>
+        <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5410,6 +5531,11 @@
       <c r="E69" t="inlineStr">
         <is>
           <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -5450,14 +5576,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 63588-2019</t>
+          <t>A 60552-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43795</v>
+        <v>43781</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5469,8 +5595,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5507,14 +5638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 63585-2019</t>
+          <t>A 61168-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43795</v>
+        <v>43782</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5527,7 +5658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5564,14 +5695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 6678-2020</t>
+          <t>A 62091-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43867</v>
+        <v>43782</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5583,13 +5714,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5626,14 +5752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 6645-2020</t>
+          <t>A 63588-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43867</v>
+        <v>43795</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5646,7 +5772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5683,14 +5809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11133-2020</t>
+          <t>A 63585-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43889</v>
+        <v>43795</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5702,13 +5828,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5745,14 +5866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11130-2020</t>
+          <t>A 6678-2020</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43889</v>
+        <v>43867</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5770,7 +5891,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5807,14 +5928,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 11131-2020</t>
+          <t>A 6645-2020</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43889</v>
+        <v>43867</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5826,13 +5947,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5869,14 +5985,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 12406-2020</t>
+          <t>A 11133-2020</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43896</v>
+        <v>43889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5888,8 +6004,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5926,14 +6047,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28681-2020</t>
+          <t>A 11130-2020</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43999</v>
+        <v>43889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5951,7 +6072,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5988,14 +6109,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29321-2020</t>
+          <t>A 11131-2020</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44000</v>
+        <v>43889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6007,8 +6128,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>7.1</v>
+        <v>0.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6045,14 +6171,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31794-2020</t>
+          <t>A 12406-2020</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44014</v>
+        <v>43896</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6064,13 +6190,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6107,14 +6228,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 32342-2020</t>
+          <t>A 28681-2020</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44016</v>
+        <v>43999</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6132,7 +6253,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>8.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6169,14 +6290,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 36111-2020</t>
+          <t>A 29321-2020</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44048</v>
+        <v>44000</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6189,7 +6310,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>7.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6226,14 +6347,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 36467-2020</t>
+          <t>A 31794-2020</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44049</v>
+        <v>44014</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6251,7 +6372,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6288,14 +6409,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 37851-2020</t>
+          <t>A 32342-2020</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44057</v>
+        <v>44016</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6307,8 +6428,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6345,14 +6471,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 42959-2020</t>
+          <t>A 36111-2020</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44078</v>
+        <v>44048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6365,7 +6491,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6402,14 +6528,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 43907-2020</t>
+          <t>A 36467-2020</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44083</v>
+        <v>44049</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6427,7 +6553,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6464,14 +6590,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 44230-2020</t>
+          <t>A 37851-2020</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44084</v>
+        <v>44057</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6484,7 +6610,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>9.4</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6521,14 +6647,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 46274-2020</t>
+          <t>A 42959-2020</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44092</v>
+        <v>44078</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6540,13 +6666,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6583,14 +6704,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 46269-2020</t>
+          <t>A 43907-2020</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44092</v>
+        <v>44083</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6608,7 +6729,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6645,14 +6766,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 46281-2020</t>
+          <t>A 44230-2020</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44092</v>
+        <v>44084</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6664,13 +6785,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>9.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6707,14 +6823,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46270-2020</t>
+          <t>A 46274-2020</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6732,7 +6848,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6769,14 +6885,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 46276-2020</t>
+          <t>A 46269-2020</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6794,7 +6910,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6831,14 +6947,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46267-2020</t>
+          <t>A 46281-2020</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6856,7 +6972,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>11.8</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6893,14 +7009,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46278-2020</t>
+          <t>A 46270-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6918,7 +7034,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6955,14 +7071,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 49708-2020</t>
+          <t>A 46276-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44106</v>
+        <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6974,8 +7090,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7012,14 +7133,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 55301-2020</t>
+          <t>A 46267-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44130</v>
+        <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7031,8 +7152,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.8</v>
+        <v>11.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7069,14 +7195,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 56603-2020</t>
+          <t>A 46278-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44137</v>
+        <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7094,7 +7220,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7131,14 +7257,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 56671-2020</t>
+          <t>A 49708-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44137</v>
+        <v>44106</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7150,13 +7276,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7193,14 +7314,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 58322-2020</t>
+          <t>A 55301-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44145</v>
+        <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7213,7 +7334,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7250,14 +7371,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 61835-2020</t>
+          <t>A 56603-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44159</v>
+        <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7269,8 +7390,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>9.4</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7307,14 +7433,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 61836-2020</t>
+          <t>A 56671-2020</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44159</v>
+        <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7326,8 +7452,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>12.4</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7364,14 +7495,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 62475-2020</t>
+          <t>A 58322-2020</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44160</v>
+        <v>44145</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7384,7 +7515,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7421,14 +7552,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 63951-2020</t>
+          <t>A 61835-2020</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44167</v>
+        <v>44159</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7441,7 +7572,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.2</v>
+        <v>9.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7478,14 +7609,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 68397-2020</t>
+          <t>A 61836-2020</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44186</v>
+        <v>44159</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7498,7 +7629,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.1</v>
+        <v>12.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7535,14 +7666,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 3802-2021</t>
+          <t>A 62475-2020</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44221</v>
+        <v>44160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7555,7 +7686,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7592,14 +7723,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 5557-2021</t>
+          <t>A 63951-2020</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44230</v>
+        <v>44167</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7612,7 +7743,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7649,14 +7780,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 12057-2021</t>
+          <t>A 68397-2020</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44266</v>
+        <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7669,7 +7800,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7706,14 +7837,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 12399-2021</t>
+          <t>A 3802-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44267</v>
+        <v>44221</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7726,7 +7857,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7763,14 +7894,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 20119-2021</t>
+          <t>A 5557-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44314</v>
+        <v>44230</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7783,7 +7914,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7820,14 +7951,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 24851-2021</t>
+          <t>A 12057-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44340</v>
+        <v>44266</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7839,13 +7970,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7882,14 +8008,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 31123-2021</t>
+          <t>A 12399-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44368</v>
+        <v>44267</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7902,7 +8028,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7939,14 +8065,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 47531-2021</t>
+          <t>A 20119-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44447</v>
+        <v>44314</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7959,7 +8085,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>7.6</v>
+        <v>3.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7996,14 +8122,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 47538-2021</t>
+          <t>A 24851-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44447</v>
+        <v>44340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8015,8 +8141,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8053,14 +8184,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 50278-2021</t>
+          <t>A 31123-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44456</v>
+        <v>44368</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8073,7 +8204,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8110,14 +8241,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 54154-2021</t>
+          <t>A 47531-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44470</v>
+        <v>44447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8129,13 +8260,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8172,14 +8298,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 54616-2021</t>
+          <t>A 47538-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44473</v>
+        <v>44447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8191,13 +8317,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>6.9</v>
+        <v>1.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8234,14 +8355,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 54826-2021</t>
+          <t>A 50278-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44473</v>
+        <v>44456</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8253,13 +8374,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8296,14 +8412,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 64706-2021</t>
+          <t>A 54154-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44512</v>
+        <v>44470</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8315,8 +8431,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>7.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8353,14 +8474,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 74254-2021</t>
+          <t>A 54616-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44558</v>
+        <v>44473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8372,8 +8493,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>8.1</v>
+        <v>6.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8410,14 +8536,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 74255-2021</t>
+          <t>A 54826-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44558</v>
+        <v>44473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8429,8 +8555,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8467,14 +8598,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 6560-2022</t>
+          <t>A 64706-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44601</v>
+        <v>44512</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8487,7 +8618,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>12.2</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8524,14 +8655,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 10184-2022</t>
+          <t>A 74254-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44622</v>
+        <v>44558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8544,7 +8675,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>8.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8581,14 +8712,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 10602-2022</t>
+          <t>A 74255-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44624</v>
+        <v>44558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8601,7 +8732,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8638,14 +8769,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 10587-2022</t>
+          <t>A 6560-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44624</v>
+        <v>44601</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8658,7 +8789,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5</v>
+        <v>12.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8695,14 +8826,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 13807-2022</t>
+          <t>A 10184-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44649</v>
+        <v>44622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8715,7 +8846,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8752,14 +8883,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 16371-2022</t>
+          <t>A 10602-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44671</v>
+        <v>44624</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8772,7 +8903,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8809,14 +8940,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 17762-2022</t>
+          <t>A 10587-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44680</v>
+        <v>44624</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8829,7 +8960,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8866,14 +8997,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 19292-2022</t>
+          <t>A 13807-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44692</v>
+        <v>44649</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8886,7 +9017,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8923,14 +9054,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 29606-2022</t>
+          <t>A 16371-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44754</v>
+        <v>44671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8942,13 +9073,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8985,14 +9111,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 31205-2022</t>
+          <t>A 17762-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44770</v>
+        <v>44680</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9004,13 +9130,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9047,14 +9168,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 31248-2022</t>
+          <t>A 19292-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44771</v>
+        <v>44692</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9066,13 +9187,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9109,14 +9225,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 32330-2022</t>
+          <t>A 29606-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44781</v>
+        <v>44754</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9134,7 +9250,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.9</v>
+        <v>2.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9171,14 +9287,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 33672-2022</t>
+          <t>A 31205-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44789</v>
+        <v>44770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9196,7 +9312,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>14.4</v>
+        <v>3.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9233,14 +9349,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 36882-2022</t>
+          <t>A 31248-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44805</v>
+        <v>44771</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9258,7 +9374,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>7.3</v>
+        <v>2.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9295,14 +9411,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 37680-2022</t>
+          <t>A 32330-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44810</v>
+        <v>44781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9314,8 +9430,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9352,14 +9473,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 37767-2022</t>
+          <t>A 33672-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44810</v>
+        <v>44789</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9377,7 +9498,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.2</v>
+        <v>14.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9414,14 +9535,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 43603-2022</t>
+          <t>A 36882-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44837</v>
+        <v>44805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9439,7 +9560,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>11.9</v>
+        <v>7.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9476,14 +9597,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 43610-2022</t>
+          <t>A 37680-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44837</v>
+        <v>44810</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9495,13 +9616,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>17.6</v>
+        <v>6.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9538,14 +9654,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 52320-2022</t>
+          <t>A 37767-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44873</v>
+        <v>44810</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9557,8 +9673,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>6.1</v>
+        <v>2.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9595,14 +9716,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 54192-2022</t>
+          <t>A 43603-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44881</v>
+        <v>44837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9620,7 +9741,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.4</v>
+        <v>11.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9657,14 +9778,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 54616-2022</t>
+          <t>A 43610-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44883</v>
+        <v>44837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9678,11 +9799,11 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.8</v>
+        <v>17.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9719,14 +9840,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 57971-2022</t>
+          <t>A 52320-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44900</v>
+        <v>44873</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9738,13 +9859,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9781,14 +9897,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 6929-2023</t>
+          <t>A 54192-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44967</v>
+        <v>44881</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9800,8 +9916,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9838,14 +9959,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 10161-2023</t>
+          <t>A 54616-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44986</v>
+        <v>44883</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9859,11 +9980,11 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9900,14 +10021,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 11607-2023</t>
+          <t>A 57971-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44994</v>
+        <v>44900</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9921,11 +10042,11 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9962,14 +10083,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 13745-2023</t>
+          <t>A 6929-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45007</v>
+        <v>44967</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9981,13 +10102,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10024,14 +10140,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 13742-2023</t>
+          <t>A 10161-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45007</v>
+        <v>44986</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10049,7 +10165,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10086,14 +10202,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 13749-2023</t>
+          <t>A 11607-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45007</v>
+        <v>44994</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10111,7 +10227,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10148,14 +10264,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 13744-2023</t>
+          <t>A 13745-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
         <v>45007</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10173,7 +10289,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10210,14 +10326,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 13741-2023</t>
+          <t>A 13742-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
         <v>45007</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10235,7 +10351,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10272,14 +10388,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 13746-2023</t>
+          <t>A 13744-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
         <v>45007</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10297,7 +10413,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10341,7 +10457,7 @@
         <v>45043</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10398,7 +10514,7 @@
         <v>45044</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10455,7 +10571,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10512,7 +10628,7 @@
         <v>45050</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10569,7 +10685,7 @@
         <v>45050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10626,7 +10742,7 @@
         <v>45069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10688,7 +10804,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10745,7 +10861,7 @@
         <v>45072</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10802,7 +10918,7 @@
         <v>45072</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10859,7 +10975,7 @@
         <v>45084</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10916,7 +11032,7 @@
         <v>45097</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10973,7 +11089,7 @@
         <v>45099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11030,7 +11146,7 @@
         <v>45117</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11087,7 +11203,7 @@
         <v>45117</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11144,7 +11260,7 @@
         <v>45117</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11201,7 +11317,7 @@
         <v>45118</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11263,7 +11379,7 @@
         <v>45118</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11325,7 +11441,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11382,7 +11498,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11444,7 +11560,7 @@
         <v>45127</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11506,7 +11622,7 @@
         <v>45127</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11568,7 +11684,7 @@
         <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11625,7 +11741,7 @@
         <v>45147</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11682,7 +11798,7 @@
         <v>45163</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11744,7 +11860,7 @@
         <v>45163</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -978,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
@@ -991,7 +991,6 @@
 Bronshjon
 Svavelriska
 Thomsons trägnagare
-Vedticka
 Kopparödla
 Blåsippa</t>
         </is>
@@ -1035,7 +1034,7 @@
         <v>44512</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1132,7 +1131,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1231,7 +1230,7 @@
         <v>45007</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1329,7 +1328,7 @@
         <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1422,7 @@
         <v>45007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1516,7 +1515,7 @@
         <v>43635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1611,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1703,7 +1702,7 @@
         <v>43581</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1798,7 +1797,7 @@
         <v>44447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1888,7 +1887,7 @@
         <v>44741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1979,7 +1978,7 @@
         <v>44816</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2064,7 @@
         <v>44816</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2155,7 +2154,7 @@
         <v>43684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2240,7 +2239,7 @@
         <v>44088</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2325,7 +2324,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2419,7 +2418,7 @@
         <v>44473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2513,7 +2512,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2602,7 @@
         <v>45007</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2693,7 +2692,7 @@
         <v>45012</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2783,7 +2782,7 @@
         <v>45106</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2872,7 +2871,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2962,7 +2961,7 @@
         <v>43363</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3019,7 +3018,7 @@
         <v>43444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3076,7 +3075,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3133,7 +3132,7 @@
         <v>43472</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3190,7 +3189,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3247,7 +3246,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3304,7 +3303,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3361,7 +3360,7 @@
         <v>43490</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3418,7 +3417,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3475,7 +3474,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3537,7 +3536,7 @@
         <v>43558</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3599,7 +3598,7 @@
         <v>43558</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3661,7 +3660,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3718,7 +3717,7 @@
         <v>43581</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3800,7 +3799,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3862,7 +3861,7 @@
         <v>43595</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3919,7 +3918,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3981,7 +3980,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4043,7 +4042,7 @@
         <v>43635</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4104,7 @@
         <v>43635</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4167,7 +4166,7 @@
         <v>43696</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4249,7 +4248,7 @@
         <v>43703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4311,7 +4310,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4368,7 +4367,7 @@
         <v>43710</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4430,7 +4429,7 @@
         <v>43710</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4492,7 +4491,7 @@
         <v>43718</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4554,7 +4553,7 @@
         <v>43718</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4616,7 +4615,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4678,7 +4677,7 @@
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4740,7 +4739,7 @@
         <v>43738</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4802,7 +4801,7 @@
         <v>43738</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4859,7 +4858,7 @@
         <v>43741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4921,7 +4920,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4978,7 +4977,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5040,7 +5039,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5101,7 @@
         <v>43752</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5164,7 +5163,7 @@
         <v>43752</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5226,7 +5225,7 @@
         <v>43755</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5283,7 +5282,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5345,7 +5344,7 @@
         <v>43775</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5402,7 +5401,7 @@
         <v>43775</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5459,7 +5458,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5521,7 +5520,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5583,7 +5582,7 @@
         <v>43781</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5645,7 +5644,7 @@
         <v>43782</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5702,7 +5701,7 @@
         <v>43782</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5759,7 +5758,7 @@
         <v>43795</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5816,7 +5815,7 @@
         <v>43795</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5873,7 +5872,7 @@
         <v>43867</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5935,7 +5934,7 @@
         <v>43867</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5992,7 +5991,7 @@
         <v>43889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6053,7 @@
         <v>43889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6116,7 +6115,7 @@
         <v>43889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6178,7 +6177,7 @@
         <v>43896</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6235,7 +6234,7 @@
         <v>43999</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6297,7 +6296,7 @@
         <v>44000</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6354,7 +6353,7 @@
         <v>44014</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6415,7 @@
         <v>44016</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6478,7 +6477,7 @@
         <v>44048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6535,7 +6534,7 @@
         <v>44049</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6597,7 +6596,7 @@
         <v>44057</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6654,7 +6653,7 @@
         <v>44078</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6711,7 +6710,7 @@
         <v>44083</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6773,7 +6772,7 @@
         <v>44084</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6830,7 +6829,7 @@
         <v>44092</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6892,7 +6891,7 @@
         <v>44092</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6954,7 +6953,7 @@
         <v>44092</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7016,7 +7015,7 @@
         <v>44092</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7078,7 +7077,7 @@
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7140,7 +7139,7 @@
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7202,7 +7201,7 @@
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7264,7 +7263,7 @@
         <v>44106</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7321,7 +7320,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7378,7 +7377,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7440,7 +7439,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7502,7 +7501,7 @@
         <v>44145</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7559,7 +7558,7 @@
         <v>44159</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7616,7 +7615,7 @@
         <v>44159</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7673,7 +7672,7 @@
         <v>44160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7730,7 +7729,7 @@
         <v>44167</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7787,7 +7786,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7844,7 +7843,7 @@
         <v>44221</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7901,7 +7900,7 @@
         <v>44230</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7958,7 +7957,7 @@
         <v>44266</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8015,7 +8014,7 @@
         <v>44267</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8072,7 +8071,7 @@
         <v>44314</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8129,7 +8128,7 @@
         <v>44340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8191,7 +8190,7 @@
         <v>44368</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8248,7 +8247,7 @@
         <v>44447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8305,7 +8304,7 @@
         <v>44447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8362,7 +8361,7 @@
         <v>44456</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8419,7 +8418,7 @@
         <v>44470</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8481,7 +8480,7 @@
         <v>44473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8543,7 +8542,7 @@
         <v>44473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8605,7 +8604,7 @@
         <v>44512</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8662,7 +8661,7 @@
         <v>44558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8719,7 +8718,7 @@
         <v>44558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8776,7 +8775,7 @@
         <v>44601</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8833,7 +8832,7 @@
         <v>44622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8890,7 +8889,7 @@
         <v>44624</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8947,7 +8946,7 @@
         <v>44624</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9004,7 +9003,7 @@
         <v>44649</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9061,7 +9060,7 @@
         <v>44671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9118,7 +9117,7 @@
         <v>44680</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9175,7 +9174,7 @@
         <v>44692</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9232,7 +9231,7 @@
         <v>44754</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9294,7 +9293,7 @@
         <v>44770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9356,7 +9355,7 @@
         <v>44771</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9418,7 +9417,7 @@
         <v>44781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9480,7 +9479,7 @@
         <v>44789</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9542,7 +9541,7 @@
         <v>44805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9604,7 +9603,7 @@
         <v>44810</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9661,7 +9660,7 @@
         <v>44810</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9723,7 +9722,7 @@
         <v>44837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9785,7 +9784,7 @@
         <v>44837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9847,7 +9846,7 @@
         <v>44873</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9904,7 +9903,7 @@
         <v>44881</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9966,7 +9965,7 @@
         <v>44883</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10028,7 +10027,7 @@
         <v>44900</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10090,7 +10089,7 @@
         <v>44967</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10147,7 +10146,7 @@
         <v>44986</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10209,7 +10208,7 @@
         <v>44994</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10271,7 +10270,7 @@
         <v>45007</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10333,7 +10332,7 @@
         <v>45007</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10395,7 +10394,7 @@
         <v>45007</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10457,7 +10456,7 @@
         <v>45043</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10514,7 +10513,7 @@
         <v>45044</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10571,7 +10570,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10628,7 +10627,7 @@
         <v>45050</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10685,7 +10684,7 @@
         <v>45050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10742,7 +10741,7 @@
         <v>45069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10804,7 +10803,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10861,7 +10860,7 @@
         <v>45072</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10918,7 +10917,7 @@
         <v>45072</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10975,7 +10974,7 @@
         <v>45084</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11032,7 +11031,7 @@
         <v>45097</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11088,7 @@
         <v>45099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11146,7 +11145,7 @@
         <v>45117</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11203,7 +11202,7 @@
         <v>45117</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11260,7 +11259,7 @@
         <v>45117</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11317,7 +11316,7 @@
         <v>45118</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11379,7 +11378,7 @@
         <v>45118</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11441,7 +11440,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11498,7 +11497,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11560,7 +11559,7 @@
         <v>45127</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11622,7 +11621,7 @@
         <v>45127</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11684,7 +11683,7 @@
         <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11741,7 +11740,7 @@
         <v>45147</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11798,7 +11797,7 @@
         <v>45163</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11860,7 +11859,7 @@
         <v>45163</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>44512</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45007</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>45007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>43635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>43581</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>44447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>44741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>44816</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>44816</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44088</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>45007</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45012</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>45106</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43363</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43472</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>43490</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43558</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>43558</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43581</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43595</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43635</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43635</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43696</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>43703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>43710</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>43710</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>43718</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43718</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43738</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43738</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43752</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43752</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43755</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43775</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43775</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>43781</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43782</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43782</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43795</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>43795</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>43867</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43867</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>43889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>43889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43896</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43999</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>44000</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>44014</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44016</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>44048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>44049</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>44057</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44078</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44083</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>44084</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44092</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>44092</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44092</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44092</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44106</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>44145</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>44159</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>44159</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>44160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44167</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44221</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>44230</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>44266</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>44267</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>44314</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>44340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>44368</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>44447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>44447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>44456</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>44470</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>44473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>44473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>44512</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>44558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         <v>44558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>44601</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>44622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>44624</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44624</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>44649</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44680</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>44692</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>44754</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>44771</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>44781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44789</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>44805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>44810</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>44810</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>44837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44873</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44881</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44883</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44900</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>44967</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>44986</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>44994</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>45007</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>45007</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>45007</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>45043</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10513,7 +10513,7 @@
         <v>45044</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>45050</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>45050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>45069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>45072</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>45072</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>45084</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>45097</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>45099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>45117</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>45117</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>45117</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45118</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>45118</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>45127</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>45127</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>45147</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>45163</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>45163</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -978,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
@@ -991,6 +991,7 @@
 Bronshjon
 Svavelriska
 Thomsons trägnagare
+Vedticka
 Kopparödla
 Blåsippa</t>
         </is>
@@ -1034,7 +1035,7 @@
         <v>44512</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1131,7 +1132,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1230,7 +1231,7 @@
         <v>45007</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1328,7 +1329,7 @@
         <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1422,7 +1423,7 @@
         <v>45007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1516,7 @@
         <v>43635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1611,7 +1612,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1702,7 +1703,7 @@
         <v>43581</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1797,7 +1798,7 @@
         <v>44447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1887,7 +1888,7 @@
         <v>44741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1978,7 +1979,7 @@
         <v>44816</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2064,7 +2065,7 @@
         <v>44816</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2154,7 +2155,7 @@
         <v>43684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2239,7 +2240,7 @@
         <v>44088</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2324,7 +2325,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2418,7 +2419,7 @@
         <v>44473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2512,7 +2513,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2602,7 +2603,7 @@
         <v>45007</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2692,7 +2693,7 @@
         <v>45012</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2782,7 +2783,7 @@
         <v>45106</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2871,7 +2872,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2961,7 +2962,7 @@
         <v>43363</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3018,7 +3019,7 @@
         <v>43444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3075,7 +3076,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3132,7 +3133,7 @@
         <v>43472</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3190,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3246,7 +3247,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3303,7 +3304,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3360,7 +3361,7 @@
         <v>43490</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3417,7 +3418,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3474,7 +3475,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3536,7 +3537,7 @@
         <v>43558</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3598,7 +3599,7 @@
         <v>43558</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3660,7 +3661,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3717,7 +3718,7 @@
         <v>43581</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3799,7 +3800,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3861,7 +3862,7 @@
         <v>43595</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3918,7 +3919,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3980,7 +3981,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4042,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4104,7 +4105,7 @@
         <v>43635</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4166,7 +4167,7 @@
         <v>43696</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4248,7 +4249,7 @@
         <v>43703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4310,7 +4311,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4367,7 +4368,7 @@
         <v>43710</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4429,7 +4430,7 @@
         <v>43710</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4491,7 +4492,7 @@
         <v>43718</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4553,7 +4554,7 @@
         <v>43718</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4615,7 +4616,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4677,7 +4678,7 @@
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4739,7 +4740,7 @@
         <v>43738</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4801,7 +4802,7 @@
         <v>43738</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4858,7 +4859,7 @@
         <v>43741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4920,7 +4921,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4977,7 +4978,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5039,7 +5040,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5101,7 +5102,7 @@
         <v>43752</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5163,7 +5164,7 @@
         <v>43752</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5225,7 +5226,7 @@
         <v>43755</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5282,7 +5283,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5344,7 +5345,7 @@
         <v>43775</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5401,7 +5402,7 @@
         <v>43775</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5458,7 +5459,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5520,7 +5521,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5582,7 +5583,7 @@
         <v>43781</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5644,7 +5645,7 @@
         <v>43782</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5701,7 +5702,7 @@
         <v>43782</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5758,7 +5759,7 @@
         <v>43795</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5815,7 +5816,7 @@
         <v>43795</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5872,7 +5873,7 @@
         <v>43867</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5934,7 +5935,7 @@
         <v>43867</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5991,7 +5992,7 @@
         <v>43889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6053,7 +6054,7 @@
         <v>43889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6115,7 +6116,7 @@
         <v>43889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6177,7 +6178,7 @@
         <v>43896</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6234,7 +6235,7 @@
         <v>43999</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6296,7 +6297,7 @@
         <v>44000</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6353,7 +6354,7 @@
         <v>44014</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6415,7 +6416,7 @@
         <v>44016</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6477,7 +6478,7 @@
         <v>44048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6534,7 +6535,7 @@
         <v>44049</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6596,7 +6597,7 @@
         <v>44057</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6653,7 +6654,7 @@
         <v>44078</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6710,7 +6711,7 @@
         <v>44083</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6772,7 +6773,7 @@
         <v>44084</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6829,7 +6830,7 @@
         <v>44092</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6891,7 +6892,7 @@
         <v>44092</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6953,7 +6954,7 @@
         <v>44092</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7015,7 +7016,7 @@
         <v>44092</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7077,7 +7078,7 @@
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7139,7 +7140,7 @@
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7201,7 +7202,7 @@
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7263,7 +7264,7 @@
         <v>44106</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7320,7 +7321,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7377,7 +7378,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7439,7 +7440,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7501,7 +7502,7 @@
         <v>44145</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7558,7 +7559,7 @@
         <v>44159</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7615,7 +7616,7 @@
         <v>44159</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7672,7 +7673,7 @@
         <v>44160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7729,7 +7730,7 @@
         <v>44167</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7786,7 +7787,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7843,7 +7844,7 @@
         <v>44221</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7900,7 +7901,7 @@
         <v>44230</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7957,7 +7958,7 @@
         <v>44266</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8014,7 +8015,7 @@
         <v>44267</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8071,7 +8072,7 @@
         <v>44314</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8128,7 +8129,7 @@
         <v>44340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8190,7 +8191,7 @@
         <v>44368</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8247,7 +8248,7 @@
         <v>44447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8304,7 +8305,7 @@
         <v>44447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8361,7 +8362,7 @@
         <v>44456</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8418,7 +8419,7 @@
         <v>44470</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8480,7 +8481,7 @@
         <v>44473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8542,7 +8543,7 @@
         <v>44473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8604,7 +8605,7 @@
         <v>44512</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8661,7 +8662,7 @@
         <v>44558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8718,7 +8719,7 @@
         <v>44558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8775,7 +8776,7 @@
         <v>44601</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8832,7 +8833,7 @@
         <v>44622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8889,7 +8890,7 @@
         <v>44624</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8946,7 +8947,7 @@
         <v>44624</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9003,7 +9004,7 @@
         <v>44649</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9060,7 +9061,7 @@
         <v>44671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9117,7 +9118,7 @@
         <v>44680</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9174,7 +9175,7 @@
         <v>44692</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9231,7 +9232,7 @@
         <v>44754</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9293,7 +9294,7 @@
         <v>44770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9355,7 +9356,7 @@
         <v>44771</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9417,7 +9418,7 @@
         <v>44781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9479,7 +9480,7 @@
         <v>44789</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9541,7 +9542,7 @@
         <v>44805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9603,7 +9604,7 @@
         <v>44810</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9660,7 +9661,7 @@
         <v>44810</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9722,7 +9723,7 @@
         <v>44837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9784,7 +9785,7 @@
         <v>44837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9846,7 +9847,7 @@
         <v>44873</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9903,7 +9904,7 @@
         <v>44881</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9965,7 +9966,7 @@
         <v>44883</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10027,7 +10028,7 @@
         <v>44900</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10089,7 +10090,7 @@
         <v>44967</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10146,7 +10147,7 @@
         <v>44986</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10208,7 +10209,7 @@
         <v>44994</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10270,7 +10271,7 @@
         <v>45007</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10332,7 +10333,7 @@
         <v>45007</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10394,7 +10395,7 @@
         <v>45007</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10456,7 +10457,7 @@
         <v>45043</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10513,7 +10514,7 @@
         <v>45044</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10570,7 +10571,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10627,7 +10628,7 @@
         <v>45050</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10684,7 +10685,7 @@
         <v>45050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10741,7 +10742,7 @@
         <v>45069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10803,7 +10804,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10860,7 +10861,7 @@
         <v>45072</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10917,7 +10918,7 @@
         <v>45072</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10974,7 +10975,7 @@
         <v>45084</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11031,7 +11032,7 @@
         <v>45097</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11088,7 +11089,7 @@
         <v>45099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11145,7 +11146,7 @@
         <v>45117</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11202,7 +11203,7 @@
         <v>45117</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11259,7 +11260,7 @@
         <v>45117</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11316,7 +11317,7 @@
         <v>45118</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11378,7 +11379,7 @@
         <v>45118</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11440,7 +11441,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11497,7 +11498,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11559,7 +11560,7 @@
         <v>45127</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11621,7 +11622,7 @@
         <v>45127</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11683,7 +11684,7 @@
         <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11740,7 +11741,7 @@
         <v>45147</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11797,7 +11798,7 @@
         <v>45163</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11859,7 +11860,7 @@
         <v>45163</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44512</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>45007</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>45007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43581</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>44741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44816</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44816</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44088</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>44473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45007</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45012</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>45106</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43363</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43472</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43490</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43558</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43558</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43581</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43595</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43635</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43696</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43710</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43710</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43718</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43718</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43738</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43738</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43752</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43752</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43755</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43775</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43775</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43781</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43782</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43782</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43795</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43795</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43867</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43867</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43896</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43999</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44000</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44014</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>44016</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>44048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>44049</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>44057</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>44078</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44083</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44084</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44092</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44092</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44092</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44092</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44106</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44145</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44159</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44159</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44167</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44221</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44230</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>44266</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44267</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44314</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44368</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44456</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44470</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>44473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44512</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44601</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44624</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44624</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44649</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44680</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>44692</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44754</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>44771</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44789</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>44805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>44810</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>44810</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>44837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44873</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44881</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44883</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44900</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44967</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44986</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44994</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>45007</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45007</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>45007</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45043</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45044</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>45050</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>45050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>45069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45072</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45072</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45084</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45097</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45117</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>45117</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>45117</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>45118</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45118</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>45127</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>45127</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>45147</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>45163</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45163</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44512</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>45007</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>45007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43581</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>44741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44816</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44816</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44088</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>44473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45007</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45012</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>45106</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43363</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43472</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43490</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43558</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43558</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43581</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43595</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43635</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43696</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43710</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43710</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43718</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43718</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43738</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43738</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43752</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43752</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43755</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43775</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43775</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43781</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43782</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43782</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43795</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43795</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43867</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43867</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43896</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43999</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44000</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44014</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>44016</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>44048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>44049</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>44057</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>44078</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44083</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44084</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44092</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44092</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44092</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44092</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44106</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44145</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44159</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44159</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44167</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44221</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44230</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>44266</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44267</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44314</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44368</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44456</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44470</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>44473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44512</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44601</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44624</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44624</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44649</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44680</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>44692</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44754</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>44771</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44789</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>44805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>44810</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>44810</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>44837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44873</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44881</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44883</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44900</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44967</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44986</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44994</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>45007</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45007</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>45007</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45043</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45044</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>45050</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>45050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>45069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45072</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45072</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45084</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45097</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45117</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>45117</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>45117</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>45118</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45118</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>45127</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>45127</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>45147</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>45163</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45163</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44512</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>45007</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>45007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43581</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>44741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44816</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44816</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44088</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>44473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45007</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45012</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>45106</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43363</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43472</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43490</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43558</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43558</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43581</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43595</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43635</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43696</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43710</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43710</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43718</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43718</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43738</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43738</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43752</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43752</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43755</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43775</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43775</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43781</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43782</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43782</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43795</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43795</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43867</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43867</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43896</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43999</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44000</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44014</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>44016</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>44048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>44049</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>44057</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>44078</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44083</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44084</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44092</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44092</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44092</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44092</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44106</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44145</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44159</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44159</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44167</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44221</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44230</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>44266</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44267</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44314</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44368</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44456</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44470</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>44473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44512</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44601</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44624</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44624</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44649</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44680</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>44692</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44754</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>44771</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44789</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>44805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>44810</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>44810</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>44837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44873</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44881</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44883</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44900</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44967</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44986</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44994</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>45007</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45007</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>45007</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45043</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45044</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>45050</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>45050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>45069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45072</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45072</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45084</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45097</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45117</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>45117</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>45117</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>45118</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45118</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>45127</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>45127</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>45147</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>45163</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45163</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44512</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>45007</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>45007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43581</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>44741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44816</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44816</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44088</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>44473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45007</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45012</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>45106</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43363</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43472</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43490</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43558</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43558</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43581</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43595</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43635</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43696</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43710</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43710</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43718</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43718</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43738</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43738</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43752</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43752</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43755</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43775</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43775</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43781</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43782</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43782</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43795</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43795</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43867</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43867</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43896</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43999</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44000</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44014</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>44016</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>44048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>44049</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>44057</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>44078</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44083</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44084</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44092</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44092</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44092</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44092</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44106</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44145</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44159</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44159</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44167</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44221</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44230</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>44266</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44267</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44314</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44368</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44456</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44470</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>44473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44512</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44601</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44624</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44624</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44649</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44680</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>44692</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44754</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>44771</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44789</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>44805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>44810</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>44810</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>44837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44873</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44881</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44883</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44900</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44967</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44986</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44994</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>45007</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45007</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>45007</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45043</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45044</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>45050</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>45050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>45069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45072</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45072</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45084</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45097</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45117</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>45117</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>45117</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>45118</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45118</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>45127</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>45127</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>45147</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>45163</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45163</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -653,31 +653,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 37176-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 37176-2022.xlsx", "A 37176-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 37176-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 37176-2022.png", "A 37176-2022")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 37176-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 37176-2022.png", "A 37176-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 37176-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 37176-2022.docx", "A 37176-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 37176-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 37176-2022.docx", "A 37176-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 37176-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 37176-2022.docx", "A 37176-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 37176-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 37176-2022.docx", "A 37176-2022")</f>
         <v/>
       </c>
     </row>
@@ -691,7 +691,7 @@
         <v>44795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,31 +771,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 34616-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 34616-2022.xlsx", "A 34616-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 34616-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 34616-2022.png", "A 34616-2022")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 34616-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 34616-2022.png", "A 34616-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 34616-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 34616-2022.docx", "A 34616-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 34616-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 34616-2022.docx", "A 34616-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 34616-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 34616-2022.docx", "A 34616-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 34616-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 34616-2022.docx", "A 34616-2022")</f>
         <v/>
       </c>
     </row>
@@ -809,7 +809,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,31 +892,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 14918-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 14918-2023.xlsx", "A 14918-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 14918-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 14918-2023.png", "A 14918-2023")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 14918-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 14918-2023.png", "A 14918-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 14918-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 14918-2023.docx", "A 14918-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 14918-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 14918-2023.docx", "A 14918-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 14918-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 14918-2023.docx", "A 14918-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 14918-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 14918-2023.docx", "A 14918-2023")</f>
         <v/>
       </c>
     </row>
@@ -930,7 +930,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,31 +997,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13746-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13746-2023.xlsx", "A 13746-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13746-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13746-2023.png", "A 13746-2023")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 13746-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 13746-2023.png", "A 13746-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13746-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13746-2023.docx", "A 13746-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13746-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13746-2023.docx", "A 13746-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13746-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13746-2023.docx", "A 13746-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13746-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13746-2023.docx", "A 13746-2023")</f>
         <v/>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
         <v>44512</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,31 +1094,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 65026-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 65026-2021.xlsx", "A 65026-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 65026-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 65026-2021.png", "A 65026-2021")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 65026-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 65026-2021.png", "A 65026-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 65026-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 65026-2021.docx", "A 65026-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 65026-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 65026-2021.docx", "A 65026-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 65026-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 65026-2021.docx", "A 65026-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 65026-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 65026-2021.docx", "A 65026-2021")</f>
         <v/>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1193,31 +1193,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 30593-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 30593-2019.xlsx", "A 30593-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 30593-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 30593-2019.png", "A 30593-2019")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 30593-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 30593-2019.png", "A 30593-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 30593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 30593-2019.docx", "A 30593-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 30593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 30593-2019.docx", "A 30593-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 30593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 30593-2019.docx", "A 30593-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 30593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 30593-2019.docx", "A 30593-2019")</f>
         <v/>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
         <v>45007</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1291,31 +1291,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13740-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13740-2023.xlsx", "A 13740-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13740-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13740-2023.png", "A 13740-2023")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 13740-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 13740-2023.png", "A 13740-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13740-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13740-2023.docx", "A 13740-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13740-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13740-2023.docx", "A 13740-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13740-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13740-2023.docx", "A 13740-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13740-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13740-2023.docx", "A 13740-2023")</f>
         <v/>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
         <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1389,27 +1389,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13749-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13749-2023.xlsx", "A 13749-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13749-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13749-2023.png", "A 13749-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13749-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13749-2023.docx", "A 13749-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13749-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13749-2023.docx", "A 13749-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13749-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13749-2023.docx", "A 13749-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13749-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13749-2023.docx", "A 13749-2023")</f>
         <v/>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
         <v>45007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1482,27 +1482,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13750-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13750-2023.xlsx", "A 13750-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13750-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13750-2023.png", "A 13750-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13750-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13750-2023.docx", "A 13750-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13750-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13750-2023.docx", "A 13750-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13750-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13750-2023.docx", "A 13750-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13750-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13750-2023.docx", "A 13750-2023")</f>
         <v/>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
         <v>43635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1574,31 +1574,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 30590-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 30590-2019.xlsx", "A 30590-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 30590-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 30590-2019.png", "A 30590-2019")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 30590-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 30590-2019.png", "A 30590-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 30590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 30590-2019.docx", "A 30590-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 30590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 30590-2019.docx", "A 30590-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 30590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 30590-2019.docx", "A 30590-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 30590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 30590-2019.docx", "A 30590-2019")</f>
         <v/>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,31 +1665,31 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 10436-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 10436-2022.xlsx", "A 10436-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 10436-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 10436-2022.png", "A 10436-2022")</f>
         <v/>
       </c>
       <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 10436-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 10436-2022.png", "A 10436-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 10436-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 10436-2022.docx", "A 10436-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 10436-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 10436-2022.docx", "A 10436-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 10436-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 10436-2022.docx", "A 10436-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 10436-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 10436-2022.docx", "A 10436-2022")</f>
         <v/>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
         <v>43581</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,31 +1760,31 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 21731-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 21731-2019.xlsx", "A 21731-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 21731-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 21731-2019.png", "A 21731-2019")</f>
         <v/>
       </c>
       <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 21731-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 21731-2019.png", "A 21731-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 21731-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 21731-2019.docx", "A 21731-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 21731-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 21731-2019.docx", "A 21731-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 21731-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 21731-2019.docx", "A 21731-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 21731-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 21731-2019.docx", "A 21731-2019")</f>
         <v/>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
         <v>44447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 47483-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 47483-2021.xlsx", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 47483-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 47483-2021.png", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 47483-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 47483-2021.png", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 47483-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 47483-2021.docx", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 47483-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 47483-2021.docx", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 47483-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 47483-2021.docx", "A 47483-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 47483-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 47483-2021.docx", "A 47483-2021")</f>
         <v/>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
         <v>44741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1945,27 +1945,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 27216-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 27216-2022.xlsx", "A 27216-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 27216-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 27216-2022.png", "A 27216-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 27216-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 27216-2022.docx", "A 27216-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 27216-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 27216-2022.docx", "A 27216-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 27216-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 27216-2022.docx", "A 27216-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 27216-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 27216-2022.docx", "A 27216-2022")</f>
         <v/>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
         <v>44816</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2031,27 +2031,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38862-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38862-2022.xlsx", "A 38862-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38862-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38862-2022.png", "A 38862-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38862-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38862-2022.docx", "A 38862-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38862-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38862-2022.docx", "A 38862-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38862-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38862-2022.docx", "A 38862-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38862-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38862-2022.docx", "A 38862-2022")</f>
         <v/>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
         <v>44816</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,31 +2117,31 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38855-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38855-2022.xlsx", "A 38855-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38855-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38855-2022.png", "A 38855-2022")</f>
         <v/>
       </c>
       <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 38855-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 38855-2022.png", "A 38855-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38855-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38855-2022.docx", "A 38855-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38855-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38855-2022.docx", "A 38855-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38855-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38855-2022.docx", "A 38855-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38855-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38855-2022.docx", "A 38855-2022")</f>
         <v/>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
         <v>43684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2206,27 +2206,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38174-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38174-2019.xlsx", "A 38174-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38174-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38174-2019.png", "A 38174-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38174-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38174-2019.docx", "A 38174-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38174-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38174-2019.docx", "A 38174-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38174-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38174-2019.docx", "A 38174-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38174-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38174-2019.docx", "A 38174-2019")</f>
         <v/>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
         <v>44088</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2291,27 +2291,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 44963-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 44963-2020.xlsx", "A 44963-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 44963-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 44963-2020.png", "A 44963-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 44963-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 44963-2020.docx", "A 44963-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 44963-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 44963-2020.docx", "A 44963-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 44963-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 44963-2020.docx", "A 44963-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 44963-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 44963-2020.docx", "A 44963-2020")</f>
         <v/>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2381,31 +2381,31 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 22096-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 22096-2021.xlsx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 22096-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 22096-2021.png", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 22096-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 22096-2021.png", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 22096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 22096-2021.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 22096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 22096-2021.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 22096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 22096-2021.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 22096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 22096-2021.docx", "A 22096-2021")</f>
         <v/>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
         <v>44473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2475,31 +2475,31 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 54828-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 54828-2021.xlsx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 54828-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 54828-2021.png", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 54828-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 54828-2021.png", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 54828-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 54828-2021.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 54828-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 54828-2021.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 54828-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 54828-2021.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 54828-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 54828-2021.docx", "A 54828-2021")</f>
         <v/>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2569,27 +2569,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 64604-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 64604-2021.xlsx", "A 64604-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 64604-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 64604-2021.png", "A 64604-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 64604-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 64604-2021.docx", "A 64604-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 64604-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 64604-2021.docx", "A 64604-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 64604-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 64604-2021.docx", "A 64604-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 64604-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 64604-2021.docx", "A 64604-2021")</f>
         <v/>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
         <v>45007</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2659,27 +2659,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13741-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13741-2023.xlsx", "A 13741-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13741-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13741-2023.png", "A 13741-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13741-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13741-2023.docx", "A 13741-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13741-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13741-2023.docx", "A 13741-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13741-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13741-2023.docx", "A 13741-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13741-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13741-2023.docx", "A 13741-2023")</f>
         <v/>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
         <v>45012</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2749,27 +2749,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 14358-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 14358-2023.xlsx", "A 14358-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 14358-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 14358-2023.png", "A 14358-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 14358-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 14358-2023.docx", "A 14358-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 14358-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 14358-2023.docx", "A 14358-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 14358-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 14358-2023.docx", "A 14358-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 14358-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 14358-2023.docx", "A 14358-2023")</f>
         <v/>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
         <v>45106</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2834,31 +2834,31 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 29400-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 29400-2023.xlsx", "A 29400-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 29400-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 29400-2023.png", "A 29400-2023")</f>
         <v/>
       </c>
       <c r="U25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 29400-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 29400-2023.png", "A 29400-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 29400-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 29400-2023.docx", "A 29400-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 29400-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 29400-2023.docx", "A 29400-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 29400-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 29400-2023.docx", "A 29400-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 29400-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 29400-2023.docx", "A 29400-2023")</f>
         <v/>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2928,27 +2928,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 33491-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 33491-2023.xlsx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 33491-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 33491-2023.png", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 33491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 33491-2023.docx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 33491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 33491-2023.docx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 33491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 33491-2023.docx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 33491-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 33491-2023.docx", "A 33491-2023")</f>
         <v/>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
         <v>43363</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43472</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43490</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43558</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43558</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43581</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3770,23 +3770,23 @@
       </c>
       <c r="R40" s="2" t="inlineStr"/>
       <c r="U40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 21734-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 21734-2019.png", "A 21734-2019")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 21734-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 21734-2019.docx", "A 21734-2019")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 21734-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 21734-2019.docx", "A 21734-2019")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 21734-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 21734-2019.docx", "A 21734-2019")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 21734-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 21734-2019.docx", "A 21734-2019")</f>
         <v/>
       </c>
     </row>
@@ -3800,7 +3800,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43595</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43635</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43696</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4219,23 +4219,23 @@
       </c>
       <c r="R47" s="2" t="inlineStr"/>
       <c r="U47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 40385-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 40385-2019.png", "A 40385-2019")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 40385-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 40385-2019.docx", "A 40385-2019")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 40385-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 40385-2019.docx", "A 40385-2019")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 40385-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 40385-2019.docx", "A 40385-2019")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 40385-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 40385-2019.docx", "A 40385-2019")</f>
         <v/>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
         <v>43703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43710</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43710</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43718</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43718</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43738</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43738</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43752</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43752</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43755</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43775</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43775</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43781</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43782</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43782</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43795</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43795</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43867</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43867</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43896</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43999</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44000</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44014</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>44016</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>44048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>44049</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>44057</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>44078</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44083</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44084</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44092</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44092</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44092</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44092</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44106</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44145</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44159</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44159</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44167</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44221</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44230</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>44266</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44267</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44314</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44368</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44456</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44470</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>44473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44512</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44601</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44624</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44624</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44649</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44680</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>44692</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44754</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>44771</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44789</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>44805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>44810</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>44810</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>44837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44873</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44881</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44883</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44900</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44967</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44986</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44994</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>45007</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45007</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>45007</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45043</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45044</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>45050</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>45050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>45069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45072</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45072</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45084</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45097</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45117</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>45117</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>45117</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>45118</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45118</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>45127</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>45127</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>45147</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>45163</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45163</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>44806</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44795</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>45015</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44512</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>45007</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>45007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>43635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>43581</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>44447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>44741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44816</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44816</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44088</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>44473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45007</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45012</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>45106</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>43363</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43472</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>43490</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43558</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>43558</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43581</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>43595</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43635</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43635</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43696</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43710</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43710</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43718</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>43718</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43731</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43738</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43738</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43748</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43752</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43752</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43752</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>43755</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>43763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43775</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43775</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>43781</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43782</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43782</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>43795</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43795</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43867</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43867</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43896</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43999</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44000</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44014</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>44016</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>44048</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>44049</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>44057</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>44078</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44083</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44084</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44092</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44092</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44092</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>44092</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44106</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44130</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44137</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44145</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44159</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44159</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44167</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44186</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44221</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44230</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>44266</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44267</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44314</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44340</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>44368</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44456</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44470</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>44473</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44512</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44558</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44601</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44624</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44624</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44649</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44680</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>44692</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44754</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>44771</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44789</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>44805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>44810</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9661,7 +9661,7 @@
         <v>44810</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44837</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>44837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44873</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44881</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44883</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44900</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44967</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44986</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>44994</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>45007</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45007</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>45007</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>45043</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45044</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>45050</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>45050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>45069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>45070</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45072</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45072</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>45084</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45097</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45117</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>45117</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>45117</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>45118</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>45118</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>45127</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>45127</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>45147</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>45163</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45163</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -565,14 +565,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 37176-2022</t>
+          <t>A 14918-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44806</v>
+        <v>45015</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -584,20 +584,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G2" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -612,12 +617,137 @@
         <v>13</v>
       </c>
       <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>37</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Kopparspindling
+Läderdoftande fingersvamp
+Dofttaggsvamp
+Flattoppad klubbsvamp
+Gultoppig fingersvamp
+Orange taggsvamp
+Svartvit taggsvamp
+Talltita
+Tretåig hackspett
+Ullticka
+Vedtrappmossa
+Äggvaxskivling
+Anisspindling
+Bronshjon
+Fjällig taggsvamp s.str.
+Korallblylav
+Mörk husmossa
+Olivspindling
+Rödgul trumpetsvamp
+Skarp dropptaggsvamp
+Skinnlav
+Skogshakmossa
+Sotriska
+Spindelblomster
+Svart trolldruva
+Svavelriska
+Thomsons trägnagare
+Tibast
+Tvåblad
+Underviol
+Vågbandad barkbock
+Vårärt
+Zontaggsvamp
+Fläcknycklar
+Blåsippa
+Lopplummer</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 14918-2023.xlsx", "A 14918-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 14918-2023.png", "A 14918-2023")</f>
+        <v/>
+      </c>
+      <c r="U2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 14918-2023.png", "A 14918-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 14918-2023.docx", "A 14918-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 14918-2023.docx", "A 14918-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 14918-2023.docx", "A 14918-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 14918-2023.docx", "A 14918-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 37176-2022</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44806</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11</v>
+      </c>
+      <c r="K3" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
         <v>31</v>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Åsstarr
@@ -652,91 +782,91 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 37176-2022.xlsx", "A 37176-2022")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 37176-2022.png", "A 37176-2022")</f>
         <v/>
       </c>
-      <c r="U2">
+      <c r="U3">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 37176-2022.png", "A 37176-2022")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 37176-2022.docx", "A 37176-2022")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 37176-2022.docx", "A 37176-2022")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 37176-2022.docx", "A 37176-2022")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 37176-2022.docx", "A 37176-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>A 34616-2022</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>44795</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="C4" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>12.9</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>18</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>6</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K4" t="n">
         <v>3</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>10</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P4" t="n">
         <v>4</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q4" t="n">
         <v>30</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Ask
 Knärot
@@ -770,153 +900,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 34616-2022.xlsx", "A 34616-2022")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 34616-2022.png", "A 34616-2022")</f>
         <v/>
       </c>
-      <c r="U3">
+      <c r="U4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 34616-2022.png", "A 34616-2022")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 34616-2022.docx", "A 34616-2022")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 34616-2022.docx", "A 34616-2022")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 34616-2022.docx", "A 34616-2022")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 34616-2022.docx", "A 34616-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 14918-2023</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45015</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>28</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Dofttaggsvamp
-Flattoppad klubbsvamp
-Gultoppig fingersvamp
-Talltita
-Ullticka
-Vedtrappmossa
-Äggvaxskivling
-Anisspindling
-Bronshjon
-Fjällig taggsvamp s.str.
-Korallblylav
-Mörk husmossa
-Olivspindling
-Rödgul trumpetsvamp
-Skinnlav
-Skogshakmossa
-Sotriska
-Spindelblomster
-Svart trolldruva
-Svavelriska
-Tibast
-Tvåblad
-Underviol
-Vårärt
-Fläcknycklar
-Blåsippa
-Lopplummer</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 14918-2023.xlsx", "A 14918-2023")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 14918-2023.png", "A 14918-2023")</f>
-        <v/>
-      </c>
-      <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 14918-2023.png", "A 14918-2023")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 14918-2023.docx", "A 14918-2023")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 14918-2023.docx", "A 14918-2023")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 14918-2023.docx", "A 14918-2023")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 14918-2023.docx", "A 14918-2023")</f>
         <v/>
       </c>
     </row>
@@ -930,7 +939,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1044,7 @@
         <v>44512</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1132,7 +1141,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1224,14 +1233,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 13740-2023</t>
+          <t>A 13749-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>45007</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1249,39 +1258,134 @@
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp
+Gultoppig fingersvamp
+Fjällig taggsvamp s.str.
+Rödgul trumpetsvamp
+Svavelriska
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13749-2023.xlsx", "A 13749-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13749-2023.png", "A 13749-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13749-2023.docx", "A 13749-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13749-2023.docx", "A 13749-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13749-2023.docx", "A 13749-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13749-2023.docx", "A 13749-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 13740-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45007</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>2.7</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>3</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>4</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>5</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Garnlav
@@ -1290,126 +1394,32 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13740-2023.xlsx", "A 13740-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13740-2023.png", "A 13740-2023")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 13740-2023.png", "A 13740-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13740-2023.docx", "A 13740-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13740-2023.docx", "A 13740-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13740-2023.docx", "A 13740-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13740-2023.docx", "A 13740-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 13749-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45007</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Flattoppad klubbsvamp
-Fjällig taggsvamp s.str.
-Rödgul trumpetsvamp
-Svavelriska
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13749-2023.xlsx", "A 13749-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13749-2023.png", "A 13749-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13749-2023.docx", "A 13749-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13749-2023.docx", "A 13749-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13749-2023.docx", "A 13749-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13749-2023.docx", "A 13749-2023")</f>
         <v/>
       </c>
     </row>
@@ -1423,7 +1433,7 @@
         <v>45007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1516,7 +1526,7 @@
         <v>43635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1622,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1703,7 +1713,7 @@
         <v>43581</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1798,7 +1808,7 @@
         <v>44447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1888,7 +1898,7 @@
         <v>44741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1979,7 +1989,7 @@
         <v>44816</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2075,7 @@
         <v>44816</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2155,7 +2165,7 @@
         <v>43684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2240,7 +2250,7 @@
         <v>44088</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2325,7 +2335,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2419,7 +2429,7 @@
         <v>44473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2513,7 +2523,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2603,7 +2613,7 @@
         <v>45007</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2693,7 +2703,7 @@
         <v>45012</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2783,7 +2793,7 @@
         <v>45106</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2872,7 +2882,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2955,14 +2965,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 45906-2018</t>
+          <t>A 33298-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43363</v>
+        <v>45127</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2974,14 +2984,19 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -3005,21 +3020,49 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 33298-2023.xlsx", "A 33298-2023")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 33298-2023.png", "A 33298-2023")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 33298-2023.docx", "A 33298-2023")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 33298-2023.docx", "A 33298-2023")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 33298-2023.docx", "A 33298-2023")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 33298-2023.docx", "A 33298-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 69675-2018</t>
+          <t>A 45906-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43444</v>
+        <v>43363</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3032,7 +3075,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3069,14 +3112,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 70699-2018</t>
+          <t>A 69675-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43451</v>
+        <v>43444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3089,7 +3132,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3126,14 +3169,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 867-2019</t>
+          <t>A 70699-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43472</v>
+        <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3146,7 +3189,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3183,14 +3226,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 1426-2019</t>
+          <t>A 867-2019</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43473</v>
+        <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3203,7 +3246,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3240,14 +3283,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 3794-2019</t>
+          <t>A 1426-2019</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43482</v>
+        <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3260,7 +3303,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3297,14 +3340,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 3796-2019</t>
+          <t>A 3794-2019</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3317,7 +3360,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3354,14 +3397,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 5746-2019</t>
+          <t>A 3796-2019</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43490</v>
+        <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3374,7 +3417,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3411,14 +3454,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12538-2019</t>
+          <t>A 5746-2019</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43524</v>
+        <v>43490</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3431,7 +3474,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>8.699999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3468,14 +3511,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 17691-2019</t>
+          <t>A 12538-2019</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43556</v>
+        <v>43524</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3487,13 +3530,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>3.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3530,14 +3568,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 18095-2019</t>
+          <t>A 17691-2019</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3551,11 +3589,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3592,14 +3630,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 18085-2019</t>
+          <t>A 18095-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>43558</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3617,7 +3655,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3654,14 +3692,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 19095-2019</t>
+          <t>A 18085-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43564</v>
+        <v>43558</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3673,8 +3711,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3711,14 +3754,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 21734-2019</t>
+          <t>A 19095-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43581</v>
+        <v>43564</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3730,13 +3773,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3769,38 +3807,18 @@
         <v>0</v>
       </c>
       <c r="R40" s="2" t="inlineStr"/>
-      <c r="U40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 21734-2019.png", "A 21734-2019")</f>
-        <v/>
-      </c>
-      <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 21734-2019.docx", "A 21734-2019")</f>
-        <v/>
-      </c>
-      <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 21734-2019.docx", "A 21734-2019")</f>
-        <v/>
-      </c>
-      <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 21734-2019.docx", "A 21734-2019")</f>
-        <v/>
-      </c>
-      <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 21734-2019.docx", "A 21734-2019")</f>
-        <v/>
-      </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 22734-2019</t>
+          <t>A 21734-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43588</v>
+        <v>43581</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3818,7 +3836,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.7</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3851,18 +3869,38 @@
         <v>0</v>
       </c>
       <c r="R41" s="2" t="inlineStr"/>
+      <c r="U41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 21734-2019.png", "A 21734-2019")</f>
+        <v/>
+      </c>
+      <c r="V41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 21734-2019.docx", "A 21734-2019")</f>
+        <v/>
+      </c>
+      <c r="W41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 21734-2019.docx", "A 21734-2019")</f>
+        <v/>
+      </c>
+      <c r="X41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 21734-2019.docx", "A 21734-2019")</f>
+        <v/>
+      </c>
+      <c r="Y41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 21734-2019.docx", "A 21734-2019")</f>
+        <v/>
+      </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 23881-2019</t>
+          <t>A 22734-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43595</v>
+        <v>43588</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3874,8 +3912,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3912,14 +3955,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24756-2019</t>
+          <t>A 23881-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43601</v>
+        <v>43595</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3931,13 +3974,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3974,14 +4012,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 25517-2019</t>
+          <t>A 24756-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43606</v>
+        <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3999,7 +4037,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,14 +4074,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 30591-2019</t>
+          <t>A 25517-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43635</v>
+        <v>43606</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4061,7 +4099,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>8.5</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,14 +4136,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 30592-2019</t>
+          <t>A 30591-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
         <v>43635</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4123,7 +4161,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4160,14 +4198,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 40385-2019</t>
+          <t>A 30592-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43696</v>
+        <v>43635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4185,7 +4223,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4218,38 +4256,18 @@
         <v>0</v>
       </c>
       <c r="R47" s="2" t="inlineStr"/>
-      <c r="U47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 40385-2019.png", "A 40385-2019")</f>
-        <v/>
-      </c>
-      <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 40385-2019.docx", "A 40385-2019")</f>
-        <v/>
-      </c>
-      <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 40385-2019.docx", "A 40385-2019")</f>
-        <v/>
-      </c>
-      <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 40385-2019.docx", "A 40385-2019")</f>
-        <v/>
-      </c>
-      <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 40385-2019.docx", "A 40385-2019")</f>
-        <v/>
-      </c>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 42253-2019</t>
+          <t>A 40385-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43703</v>
+        <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4267,7 +4285,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4300,18 +4318,38 @@
         <v>0</v>
       </c>
       <c r="R48" s="2" t="inlineStr"/>
+      <c r="U48">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 40385-2019.png", "A 40385-2019")</f>
+        <v/>
+      </c>
+      <c r="V48">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 40385-2019.docx", "A 40385-2019")</f>
+        <v/>
+      </c>
+      <c r="W48">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 40385-2019.docx", "A 40385-2019")</f>
+        <v/>
+      </c>
+      <c r="X48">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 40385-2019.docx", "A 40385-2019")</f>
+        <v/>
+      </c>
+      <c r="Y48">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 40385-2019.docx", "A 40385-2019")</f>
+        <v/>
+      </c>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 44791-2019</t>
+          <t>A 42253-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43707</v>
+        <v>43703</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4323,8 +4361,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>14.7</v>
+        <v>2.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4361,14 +4404,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44196-2019</t>
+          <t>A 44791-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43710</v>
+        <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4380,13 +4423,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>2.6</v>
+        <v>14.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4423,14 +4461,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 44218-2019</t>
+          <t>A 44196-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
         <v>43710</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4448,7 +4486,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4485,14 +4523,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 46153-2019</t>
+          <t>A 44218-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43718</v>
+        <v>43710</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4510,7 +4548,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4547,14 +4585,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 46161-2019</t>
+          <t>A 46153-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
         <v>43718</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4572,7 +4610,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4609,14 +4647,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49296-2019</t>
+          <t>A 46161-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43731</v>
+        <v>43718</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4634,7 +4672,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4671,14 +4709,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 49361-2019</t>
+          <t>A 49296-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4696,7 +4734,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4733,14 +4771,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 50696-2019</t>
+          <t>A 49361-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43738</v>
+        <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4758,7 +4796,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4795,14 +4833,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 50694-2019</t>
+          <t>A 50696-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
         <v>43738</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4814,8 +4852,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4852,14 +4895,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 51927-2019</t>
+          <t>A 50694-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43741</v>
+        <v>43738</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4869,11 +4912,6 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -4914,14 +4952,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 53312-2019</t>
+          <t>A 51927-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43748</v>
+        <v>43741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4933,8 +4971,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4971,14 +5014,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 53850-2019</t>
+          <t>A 53312-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43752</v>
+        <v>43748</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4990,13 +5033,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>6.1</v>
+        <v>3.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5033,14 +5071,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 53908-2019</t>
+          <t>A 53850-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5058,7 +5096,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>6.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5095,14 +5133,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 53930-2019</t>
+          <t>A 53908-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
         <v>43752</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5120,7 +5158,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5157,14 +5195,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 53975-2019</t>
+          <t>A 53930-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
         <v>43752</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5182,7 +5220,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5219,14 +5257,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 54934-2019</t>
+          <t>A 53975-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43755</v>
+        <v>43752</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5238,8 +5276,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5276,14 +5319,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 56578-2019</t>
+          <t>A 54934-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43763</v>
+        <v>43755</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5295,13 +5338,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>7.1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5338,14 +5376,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59116-2019</t>
+          <t>A 56578-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43775</v>
+        <v>43763</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5357,8 +5395,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>7.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5395,14 +5438,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 59115-2019</t>
+          <t>A 59116-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>43775</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5415,7 +5458,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5452,14 +5495,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 60049-2019</t>
+          <t>A 59115-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43777</v>
+        <v>43775</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5471,13 +5514,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5514,14 +5552,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60262-2019</t>
+          <t>A 60049-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43780</v>
+        <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5539,7 +5577,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5576,14 +5614,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 60552-2019</t>
+          <t>A 60262-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43781</v>
+        <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5601,7 +5639,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5638,14 +5676,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 61168-2019</t>
+          <t>A 60552-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43782</v>
+        <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5657,8 +5695,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5695,14 +5738,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 62091-2019</t>
+          <t>A 61168-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
         <v>43782</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5715,7 +5758,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5752,14 +5795,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 63588-2019</t>
+          <t>A 62091-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43795</v>
+        <v>43782</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5772,7 +5815,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5809,14 +5852,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 63585-2019</t>
+          <t>A 63588-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
         <v>43795</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5829,7 +5872,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5866,14 +5909,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 6678-2020</t>
+          <t>A 63585-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43867</v>
+        <v>43795</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5885,13 +5928,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5928,14 +5966,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 6645-2020</t>
+          <t>A 6678-2020</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
         <v>43867</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5947,8 +5985,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5985,14 +6028,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 11133-2020</t>
+          <t>A 6645-2020</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43889</v>
+        <v>43867</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6004,13 +6047,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6047,14 +6085,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 11130-2020</t>
+          <t>A 11133-2020</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
         <v>43889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6072,7 +6110,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6109,14 +6147,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 11131-2020</t>
+          <t>A 11130-2020</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
         <v>43889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6134,7 +6172,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6171,14 +6209,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 12406-2020</t>
+          <t>A 11131-2020</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43896</v>
+        <v>43889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6190,8 +6228,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6228,14 +6271,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28681-2020</t>
+          <t>A 12406-2020</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43999</v>
+        <v>43896</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6247,13 +6290,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6290,14 +6328,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 29321-2020</t>
+          <t>A 28681-2020</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6309,8 +6347,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>7.1</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6347,14 +6390,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 31794-2020</t>
+          <t>A 29321-2020</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44014</v>
+        <v>44000</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6366,13 +6409,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6409,14 +6447,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 32342-2020</t>
+          <t>A 31794-2020</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6434,7 +6472,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>8.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6471,14 +6509,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 36111-2020</t>
+          <t>A 32342-2020</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44048</v>
+        <v>44016</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6490,8 +6528,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6528,14 +6571,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 36467-2020</t>
+          <t>A 36111-2020</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6545,11 +6588,6 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -6590,14 +6628,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 37851-2020</t>
+          <t>A 36467-2020</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44057</v>
+        <v>44049</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6609,8 +6647,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6647,14 +6690,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 42959-2020</t>
+          <t>A 37851-2020</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44078</v>
+        <v>44057</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6667,7 +6710,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6704,14 +6747,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 43907-2020</t>
+          <t>A 42959-2020</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44083</v>
+        <v>44078</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6723,13 +6766,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6766,14 +6804,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 44230-2020</t>
+          <t>A 43907-2020</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6785,8 +6823,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>9.4</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6823,14 +6866,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46274-2020</t>
+          <t>A 44230-2020</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44092</v>
+        <v>44084</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6842,13 +6885,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>9.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6885,14 +6923,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 46269-2020</t>
+          <t>A 46274-2020</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6910,7 +6948,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6947,14 +6985,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46281-2020</t>
+          <t>A 46269-2020</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6972,7 +7010,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7009,14 +7047,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46270-2020</t>
+          <t>A 46281-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7034,7 +7072,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7071,14 +7109,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46276-2020</t>
+          <t>A 46270-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7096,7 +7134,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7133,14 +7171,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46267-2020</t>
+          <t>A 46276-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7158,7 +7196,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>11.8</v>
+        <v>3.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7195,14 +7233,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 46278-2020</t>
+          <t>A 46267-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7220,7 +7258,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>11.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7257,14 +7295,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 49708-2020</t>
+          <t>A 46278-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44106</v>
+        <v>44092</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7276,8 +7314,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7314,14 +7357,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 55301-2020</t>
+          <t>A 49708-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44130</v>
+        <v>44106</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7371,14 +7414,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 56603-2020</t>
+          <t>A 55301-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44137</v>
+        <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7390,13 +7433,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7433,14 +7471,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 56671-2020</t>
+          <t>A 56603-2020</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7458,7 +7496,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7495,14 +7533,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 58322-2020</t>
+          <t>A 56671-2020</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44145</v>
+        <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7514,8 +7552,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7552,14 +7595,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 61835-2020</t>
+          <t>A 58322-2020</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44159</v>
+        <v>44145</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7572,7 +7615,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>9.4</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7609,14 +7652,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 61836-2020</t>
+          <t>A 61835-2020</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
         <v>44159</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7629,7 +7672,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>12.4</v>
+        <v>9.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7666,14 +7709,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 62475-2020</t>
+          <t>A 61836-2020</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7686,7 +7729,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>12.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7723,14 +7766,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 63951-2020</t>
+          <t>A 62475-2020</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7743,7 +7786,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7780,14 +7823,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 68397-2020</t>
+          <t>A 63951-2020</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44186</v>
+        <v>44167</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7800,7 +7843,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7837,14 +7880,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 3802-2021</t>
+          <t>A 68397-2020</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44221</v>
+        <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7857,7 +7900,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7894,14 +7937,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 5557-2021</t>
+          <t>A 3802-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44230</v>
+        <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7914,7 +7957,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7951,14 +7994,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 12057-2021</t>
+          <t>A 5557-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44266</v>
+        <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7971,7 +8014,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8008,14 +8051,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 12399-2021</t>
+          <t>A 12057-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8028,7 +8071,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8065,14 +8108,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 20119-2021</t>
+          <t>A 12399-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44314</v>
+        <v>44267</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8085,7 +8128,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8122,14 +8165,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 24851-2021</t>
+          <t>A 20119-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44340</v>
+        <v>44314</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8141,13 +8184,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8184,14 +8222,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 31123-2021</t>
+          <t>A 24851-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44368</v>
+        <v>44340</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8203,8 +8241,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8241,14 +8284,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 47531-2021</t>
+          <t>A 31123-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44447</v>
+        <v>44368</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8261,7 +8304,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>7.6</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8298,14 +8341,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 47538-2021</t>
+          <t>A 47531-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
         <v>44447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8318,7 +8361,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.6</v>
+        <v>7.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8355,14 +8398,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 50278-2021</t>
+          <t>A 47538-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44456</v>
+        <v>44447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8375,7 +8418,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8412,14 +8455,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 54154-2021</t>
+          <t>A 50278-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44470</v>
+        <v>44456</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8431,13 +8474,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>7.8</v>
+        <v>1.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8474,14 +8512,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 54616-2021</t>
+          <t>A 54154-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44473</v>
+        <v>44470</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8495,11 +8533,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8536,14 +8574,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 54826-2021</t>
+          <t>A 54616-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
         <v>44473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8561,7 +8599,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8598,14 +8636,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 64706-2021</t>
+          <t>A 54826-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44512</v>
+        <v>44473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8617,8 +8655,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8655,14 +8698,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 74254-2021</t>
+          <t>A 64706-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44558</v>
+        <v>44512</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8675,7 +8718,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>8.1</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8712,14 +8755,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 74255-2021</t>
+          <t>A 74254-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
         <v>44558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8732,7 +8775,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.4</v>
+        <v>8.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8769,14 +8812,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 6560-2022</t>
+          <t>A 74255-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44601</v>
+        <v>44558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8789,7 +8832,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>12.2</v>
+        <v>3.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8826,14 +8869,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 10184-2022</t>
+          <t>A 6560-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44622</v>
+        <v>44601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8846,7 +8889,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>12.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8883,14 +8926,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 10602-2022</t>
+          <t>A 10184-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44624</v>
+        <v>44622</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8903,7 +8946,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8940,14 +8983,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 10587-2022</t>
+          <t>A 10602-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
         <v>44624</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8960,7 +9003,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8997,14 +9040,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 13807-2022</t>
+          <t>A 10587-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44649</v>
+        <v>44624</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9017,7 +9060,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9054,14 +9097,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 16371-2022</t>
+          <t>A 13807-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44671</v>
+        <v>44649</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9074,7 +9117,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9111,14 +9154,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 17762-2022</t>
+          <t>A 16371-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9131,7 +9174,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9168,14 +9211,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 19292-2022</t>
+          <t>A 17762-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44692</v>
+        <v>44680</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9188,7 +9231,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9225,14 +9268,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 29606-2022</t>
+          <t>A 19292-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44754</v>
+        <v>44692</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9244,13 +9287,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9287,14 +9325,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 31205-2022</t>
+          <t>A 29606-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44770</v>
+        <v>44754</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9312,7 +9350,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9349,14 +9387,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 31248-2022</t>
+          <t>A 31205-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44771</v>
+        <v>44770</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9374,7 +9412,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9411,14 +9449,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 32330-2022</t>
+          <t>A 31248-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44781</v>
+        <v>44771</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9436,7 +9474,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.9</v>
+        <v>2.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9473,14 +9511,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 33672-2022</t>
+          <t>A 32330-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44789</v>
+        <v>44781</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9498,7 +9536,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>14.4</v>
+        <v>6.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9535,14 +9573,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 36882-2022</t>
+          <t>A 33672-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44805</v>
+        <v>44789</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9560,7 +9598,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>7.3</v>
+        <v>14.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9597,14 +9635,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 37680-2022</t>
+          <t>A 36882-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44810</v>
+        <v>44805</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9616,8 +9654,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9654,14 +9697,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 37767-2022</t>
+          <t>A 37680-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
         <v>44810</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9673,13 +9716,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>2.2</v>
+        <v>6.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9716,14 +9754,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 43603-2022</t>
+          <t>A 37767-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44837</v>
+        <v>44810</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9741,7 +9779,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>11.9</v>
+        <v>2.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9778,14 +9816,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 43610-2022</t>
+          <t>A 43603-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
         <v>44837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9803,7 +9841,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>17.6</v>
+        <v>11.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9840,14 +9878,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 52320-2022</t>
+          <t>A 43610-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44873</v>
+        <v>44837</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9859,8 +9897,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>6.1</v>
+        <v>17.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9897,14 +9940,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 54192-2022</t>
+          <t>A 52320-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44881</v>
+        <v>44873</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9916,13 +9959,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>2.4</v>
+        <v>6.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9959,14 +9997,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54616-2022</t>
+          <t>A 54192-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44883</v>
+        <v>44881</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9980,11 +10018,11 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10021,14 +10059,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 57971-2022</t>
+          <t>A 54616-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44900</v>
+        <v>44883</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10042,11 +10080,11 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10083,14 +10121,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 6929-2023</t>
+          <t>A 57971-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44967</v>
+        <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10102,8 +10140,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10140,14 +10183,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 10161-2023</t>
+          <t>A 6929-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44986</v>
+        <v>44967</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10159,13 +10202,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10202,14 +10240,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 11607-2023</t>
+          <t>A 10161-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44994</v>
+        <v>44986</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10227,7 +10265,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10264,14 +10302,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 13745-2023</t>
+          <t>A 11607-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45007</v>
+        <v>44994</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10289,7 +10327,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10326,14 +10364,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 13742-2023</t>
+          <t>A 13745-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
         <v>45007</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10351,7 +10389,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10388,14 +10426,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 13744-2023</t>
+          <t>A 13742-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
         <v>45007</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10450,14 +10488,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 18693-2023</t>
+          <t>A 13744-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45043</v>
+        <v>45007</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10469,8 +10507,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10507,14 +10550,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 18930-2023</t>
+          <t>A 18693-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45044</v>
+        <v>45043</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10527,7 +10570,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10564,14 +10607,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 19476-2023</t>
+          <t>A 18930-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45050</v>
+        <v>45044</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10584,7 +10627,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10621,14 +10664,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 19475-2023</t>
+          <t>A 19476-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
         <v>45050</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10641,7 +10684,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10678,14 +10721,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 19549-2023</t>
+          <t>A 19475-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
         <v>45050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10698,7 +10741,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10735,14 +10778,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 22129-2023</t>
+          <t>A 19549-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45069</v>
+        <v>45050</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10754,13 +10797,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10797,14 +10835,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 22297-2023</t>
+          <t>A 22129-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45070</v>
+        <v>45069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10816,8 +10854,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10854,14 +10897,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 22787-2023</t>
+          <t>A 22297-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45072</v>
+        <v>45070</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10874,7 +10917,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10911,14 +10954,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 22904-2023</t>
+          <t>A 22787-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
         <v>45072</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10931,7 +10974,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10968,14 +11011,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 24646-2023</t>
+          <t>A 22904-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45084</v>
+        <v>45072</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10988,7 +11031,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11025,14 +11068,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 27583-2023</t>
+          <t>A 24646-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45097</v>
+        <v>45084</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11045,7 +11088,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11082,14 +11125,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 28058-2023</t>
+          <t>A 27583-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45099</v>
+        <v>45097</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11102,7 +11145,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11139,14 +11182,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 31607-2023</t>
+          <t>A 28058-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45117</v>
+        <v>45099</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11159,7 +11202,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11196,14 +11239,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 31613-2023</t>
+          <t>A 31607-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
         <v>45117</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11216,7 +11259,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11253,14 +11296,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 31611-2023</t>
+          <t>A 31613-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
         <v>45117</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11273,7 +11316,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11310,14 +11353,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 33495-2023</t>
+          <t>A 31611-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45118</v>
+        <v>45117</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11329,13 +11372,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11372,14 +11410,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 33485-2023</t>
+          <t>A 33495-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
         <v>45118</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11397,7 +11435,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11434,14 +11472,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 31871-2023</t>
+          <t>A 33485-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11453,8 +11491,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11491,14 +11534,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 33483-2023</t>
+          <t>A 31871-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11510,13 +11553,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>6.7</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11553,14 +11591,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 34232-2023</t>
+          <t>A 33483-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45127</v>
+        <v>45118</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11578,7 +11616,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11615,14 +11653,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 33298-2023</t>
+          <t>A 34232-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
         <v>45127</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11636,11 +11674,11 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11684,7 +11722,7 @@
         <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11741,7 +11779,7 @@
         <v>45147</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11798,7 +11836,7 @@
         <v>45163</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11860,7 +11898,7 @@
         <v>45163</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45015</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -599,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -614,23 +614,26 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Kopparspindling
+Lakritsmusseron
 Läderdoftande fingersvamp
 Dofttaggsvamp
 Flattoppad klubbsvamp
 Gultoppig fingersvamp
+Odörspindling
 Orange taggsvamp
+Persiljespindling
 Svartvit taggsvamp
 Talltita
 Tretåig hackspett
@@ -702,7 +705,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -821,7 +824,7 @@
         <v>44795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -939,7 +942,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1044,7 +1047,7 @@
         <v>44512</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1141,7 +1144,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1240,7 +1243,7 @@
         <v>45007</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1335,7 +1338,7 @@
         <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1433,7 +1436,7 @@
         <v>45007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1475,17 +1478,18 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Gultoppig fingersvamp
+Leptoporus mollis
 Talltita
 Fjällig taggsvamp s.str.
 Vedticka</t>
@@ -1526,7 +1530,7 @@
         <v>43635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1622,7 +1626,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1713,7 +1717,7 @@
         <v>43581</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1808,7 +1812,7 @@
         <v>44447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1898,7 +1902,7 @@
         <v>44741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1989,7 +1993,7 @@
         <v>44816</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2075,7 +2079,7 @@
         <v>44816</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2165,7 +2169,7 @@
         <v>43684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2250,7 +2254,7 @@
         <v>44088</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2335,7 +2339,7 @@
         <v>44323</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2429,7 +2433,7 @@
         <v>44473</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2523,7 +2527,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2613,7 +2617,7 @@
         <v>45007</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2703,7 +2707,7 @@
         <v>45012</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2793,7 +2797,7 @@
         <v>45106</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2886,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2972,7 +2976,7 @@
         <v>45127</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3062,7 +3066,7 @@
         <v>43363</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3123,7 @@
         <v>43444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3180,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3290,7 +3294,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3347,7 +3351,7 @@
         <v>43482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3404,7 +3408,7 @@
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3461,7 +3465,7 @@
         <v>43490</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3518,7 +3522,7 @@
         <v>43524</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3575,7 +3579,7 @@
         <v>43556</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3637,7 +3641,7 @@
         <v>43558</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3699,7 +3703,7 @@
         <v>43558</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3761,7 +3765,7 @@
         <v>43564</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3818,7 +3822,7 @@
         <v>43581</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3900,7 +3904,7 @@
         <v>43588</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3962,7 +3966,7 @@
         <v>43595</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4019,7 +4023,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4081,7 +4085,7 @@
         <v>43606</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4143,7 +4147,7 @@
         <v>43635</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4205,7 +4209,7 @@
         <v>43635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4267,7 +4271,7 @@
         <v>43696</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4349,7 +4353,7 @@
         <v>43703</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4411,7 +4415,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4468,7 +4472,7 @@
         <v>43710</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4530,7 +4534,7 @@
         <v>43710</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4592,7 +4596,7 @@
         <v>43718</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4654,7 +4658,7 @@
         <v>43718</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4716,7 +4720,7 @@
         <v>43731</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4778,7 +4782,7 @@
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4840,7 +4844,7 @@
         <v>43738</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4902,7 +4906,7 @@
         <v>43738</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4959,7 +4963,7 @@
         <v>43741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5021,7 +5025,7 @@
         <v>43748</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5078,7 +5082,7 @@
         <v>43752</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5140,7 +5144,7 @@
         <v>43752</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5202,7 +5206,7 @@
         <v>43752</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5264,7 +5268,7 @@
         <v>43752</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5326,7 +5330,7 @@
         <v>43755</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5383,7 +5387,7 @@
         <v>43763</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5445,7 +5449,7 @@
         <v>43775</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5502,7 +5506,7 @@
         <v>43775</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5559,7 +5563,7 @@
         <v>43777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5621,7 +5625,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5683,7 +5687,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5745,7 +5749,7 @@
         <v>43782</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5802,7 +5806,7 @@
         <v>43782</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5859,7 +5863,7 @@
         <v>43795</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5916,7 +5920,7 @@
         <v>43795</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5973,7 +5977,7 @@
         <v>43867</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6035,7 +6039,7 @@
         <v>43867</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6092,7 +6096,7 @@
         <v>43889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6154,7 +6158,7 @@
         <v>43889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6216,7 +6220,7 @@
         <v>43889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6278,7 +6282,7 @@
         <v>43896</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6335,7 +6339,7 @@
         <v>43999</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6397,7 +6401,7 @@
         <v>44000</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6454,7 +6458,7 @@
         <v>44014</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6516,7 +6520,7 @@
         <v>44016</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6578,7 +6582,7 @@
         <v>44048</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6635,7 +6639,7 @@
         <v>44049</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6697,7 +6701,7 @@
         <v>44057</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6754,7 +6758,7 @@
         <v>44078</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6811,7 +6815,7 @@
         <v>44083</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6873,7 +6877,7 @@
         <v>44084</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6930,7 +6934,7 @@
         <v>44092</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6992,7 +6996,7 @@
         <v>44092</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7054,7 +7058,7 @@
         <v>44092</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7116,7 +7120,7 @@
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7178,7 +7182,7 @@
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7240,7 +7244,7 @@
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7302,7 +7306,7 @@
         <v>44092</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7364,7 +7368,7 @@
         <v>44106</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7421,7 +7425,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7478,7 +7482,7 @@
         <v>44137</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7540,7 +7544,7 @@
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7602,7 +7606,7 @@
         <v>44145</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7659,7 +7663,7 @@
         <v>44159</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7716,7 +7720,7 @@
         <v>44159</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7773,7 +7777,7 @@
         <v>44160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7830,7 +7834,7 @@
         <v>44167</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7887,7 +7891,7 @@
         <v>44186</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7944,7 +7948,7 @@
         <v>44221</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8001,7 +8005,7 @@
         <v>44230</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8058,7 +8062,7 @@
         <v>44266</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8115,7 +8119,7 @@
         <v>44267</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8172,7 +8176,7 @@
         <v>44314</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8229,7 +8233,7 @@
         <v>44340</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8291,7 +8295,7 @@
         <v>44368</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8348,7 +8352,7 @@
         <v>44447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8405,7 +8409,7 @@
         <v>44447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8462,7 +8466,7 @@
         <v>44456</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8519,7 +8523,7 @@
         <v>44470</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8581,7 +8585,7 @@
         <v>44473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8643,7 +8647,7 @@
         <v>44473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8705,7 +8709,7 @@
         <v>44512</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8762,7 +8766,7 @@
         <v>44558</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8819,7 +8823,7 @@
         <v>44558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8876,7 +8880,7 @@
         <v>44601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8933,7 +8937,7 @@
         <v>44622</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8990,7 +8994,7 @@
         <v>44624</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9047,7 +9051,7 @@
         <v>44624</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9104,7 +9108,7 @@
         <v>44649</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9161,7 +9165,7 @@
         <v>44671</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9218,7 +9222,7 @@
         <v>44680</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9275,7 +9279,7 @@
         <v>44692</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9332,7 +9336,7 @@
         <v>44754</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9394,7 +9398,7 @@
         <v>44770</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9456,7 +9460,7 @@
         <v>44771</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9518,7 +9522,7 @@
         <v>44781</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9580,7 +9584,7 @@
         <v>44789</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9642,7 +9646,7 @@
         <v>44805</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9704,7 +9708,7 @@
         <v>44810</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9761,7 +9765,7 @@
         <v>44810</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9823,7 +9827,7 @@
         <v>44837</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9885,7 +9889,7 @@
         <v>44837</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9947,7 +9951,7 @@
         <v>44873</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10004,7 +10008,7 @@
         <v>44881</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10066,7 +10070,7 @@
         <v>44883</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10128,7 +10132,7 @@
         <v>44900</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10190,7 +10194,7 @@
         <v>44967</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10247,7 +10251,7 @@
         <v>44986</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10309,7 +10313,7 @@
         <v>44994</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10371,7 +10375,7 @@
         <v>45007</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10433,7 +10437,7 @@
         <v>45007</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10495,7 +10499,7 @@
         <v>45007</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10557,7 +10561,7 @@
         <v>45043</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10614,7 +10618,7 @@
         <v>45044</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10671,7 +10675,7 @@
         <v>45050</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10728,7 +10732,7 @@
         <v>45050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10785,7 +10789,7 @@
         <v>45050</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10842,7 +10846,7 @@
         <v>45069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10904,7 +10908,7 @@
         <v>45070</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10961,7 +10965,7 @@
         <v>45072</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11018,7 +11022,7 @@
         <v>45072</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11075,7 +11079,7 @@
         <v>45084</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11132,7 +11136,7 @@
         <v>45097</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11189,7 +11193,7 @@
         <v>45099</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11246,7 +11250,7 @@
         <v>45117</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11303,7 +11307,7 @@
         <v>45117</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11360,7 +11364,7 @@
         <v>45117</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11417,7 +11421,7 @@
         <v>45118</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11479,7 +11483,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11541,7 +11545,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11598,7 +11602,7 @@
         <v>45118</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11660,7 +11664,7 @@
         <v>45127</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11722,7 +11726,7 @@
         <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11779,7 +11783,7 @@
         <v>45147</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11836,7 +11840,7 @@
         <v>45163</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11898,7 +11902,7 @@
         <v>45163</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45015</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         <v>44795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44512</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43635</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45007</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>45007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>43635</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43581</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>44447</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>44741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44816</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>44816</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2162,14 +2162,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 38174-2019</t>
+          <t>A 19549-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>43684</v>
+        <v>45050</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,16 +2182,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2206,55 +2206,56 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svavelriska
+Blåsippa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38174-2019.xlsx", "A 38174-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 19549-2023.xlsx", "A 19549-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38174-2019.png", "A 38174-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 19549-2023.png", "A 19549-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38174-2019.docx", "A 38174-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 19549-2023.docx", "A 19549-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38174-2019.docx", "A 38174-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 19549-2023.docx", "A 19549-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38174-2019.docx", "A 38174-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 19549-2023.docx", "A 19549-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38174-2019.docx", "A 38174-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 19549-2023.docx", "A 19549-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 44963-2020</t>
+          <t>A 38174-2019</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44088</v>
+        <v>43684</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2268,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>14</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2301,45 +2302,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 44963-2020.xlsx", "A 44963-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38174-2019.xlsx", "A 38174-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 44963-2020.png", "A 44963-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38174-2019.png", "A 38174-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 44963-2020.docx", "A 44963-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38174-2019.docx", "A 38174-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 44963-2020.docx", "A 44963-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38174-2019.docx", "A 38174-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 44963-2020.docx", "A 44963-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38174-2019.docx", "A 38174-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 44963-2020.docx", "A 44963-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38174-2019.docx", "A 38174-2019")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 22096-2021</t>
+          <t>A 44963-2020</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44323</v>
+        <v>44088</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2351,25 +2352,20 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2384,56 +2380,52 @@
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 22096-2021.xlsx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 44963-2020.xlsx", "A 44963-2020")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 22096-2021.png", "A 22096-2021")</f>
-        <v/>
-      </c>
-      <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 22096-2021.png", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 44963-2020.png", "A 44963-2020")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 22096-2021.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 44963-2020.docx", "A 44963-2020")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 22096-2021.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 44963-2020.docx", "A 44963-2020")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 22096-2021.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 44963-2020.docx", "A 44963-2020")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 22096-2021.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 44963-2020.docx", "A 44963-2020")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 54828-2021</t>
+          <t>A 22096-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44473</v>
+        <v>44323</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,11 +2439,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2489,45 +2481,45 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 54828-2021.xlsx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 22096-2021.xlsx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 54828-2021.png", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 22096-2021.png", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 54828-2021.png", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 22096-2021.png", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 54828-2021.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 22096-2021.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 54828-2021.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 22096-2021.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 54828-2021.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 22096-2021.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 54828-2021.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 22096-2021.docx", "A 22096-2021")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 64604-2021</t>
+          <t>A 54828-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44511</v>
+        <v>44473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2541,24 +2533,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
@@ -2569,55 +2561,59 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Bågpraktmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 64604-2021.xlsx", "A 64604-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 54828-2021.xlsx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 64604-2021.png", "A 64604-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 54828-2021.png", "A 54828-2021")</f>
+        <v/>
+      </c>
+      <c r="U22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 54828-2021.png", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 64604-2021.docx", "A 64604-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 54828-2021.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 64604-2021.docx", "A 64604-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 54828-2021.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 64604-2021.docx", "A 64604-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 54828-2021.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 64604-2021.docx", "A 64604-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 54828-2021.docx", "A 54828-2021")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 13741-2023</t>
+          <t>A 64604-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45007</v>
+        <v>44511</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2631,11 +2627,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2669,45 +2665,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Bågpraktmossa</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13741-2023.xlsx", "A 13741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 64604-2021.xlsx", "A 64604-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13741-2023.png", "A 13741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 64604-2021.png", "A 64604-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13741-2023.docx", "A 13741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 64604-2021.docx", "A 64604-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13741-2023.docx", "A 13741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 64604-2021.docx", "A 64604-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13741-2023.docx", "A 13741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 64604-2021.docx", "A 64604-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13741-2023.docx", "A 13741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 64604-2021.docx", "A 64604-2021")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 14358-2023</t>
+          <t>A 13741-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45012</v>
+        <v>45007</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2725,7 +2721,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2759,45 +2755,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 14358-2023.xlsx", "A 14358-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13741-2023.xlsx", "A 13741-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 14358-2023.png", "A 14358-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13741-2023.png", "A 13741-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 14358-2023.docx", "A 14358-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13741-2023.docx", "A 13741-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 14358-2023.docx", "A 14358-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13741-2023.docx", "A 13741-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 14358-2023.docx", "A 14358-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13741-2023.docx", "A 13741-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 14358-2023.docx", "A 14358-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13741-2023.docx", "A 13741-2023")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 29400-2023</t>
+          <t>A 14358-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45106</v>
+        <v>45012</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2809,20 +2805,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>6.8</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2834,59 +2835,55 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 29400-2023.xlsx", "A 29400-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 14358-2023.xlsx", "A 14358-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 29400-2023.png", "A 29400-2023")</f>
-        <v/>
-      </c>
-      <c r="U25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 29400-2023.png", "A 29400-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 14358-2023.png", "A 14358-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 29400-2023.docx", "A 29400-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 14358-2023.docx", "A 14358-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 29400-2023.docx", "A 29400-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 14358-2023.docx", "A 14358-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 29400-2023.docx", "A 29400-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 14358-2023.docx", "A 14358-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 29400-2023.docx", "A 29400-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 14358-2023.docx", "A 14358-2023")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 33491-2023</t>
+          <t>A 29400-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2898,13 +2895,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>32.3</v>
+        <v>6.8</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2916,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2928,55 +2920,59 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 33491-2023.xlsx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 29400-2023.xlsx", "A 29400-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 33491-2023.png", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 29400-2023.png", "A 29400-2023")</f>
+        <v/>
+      </c>
+      <c r="U26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 29400-2023.png", "A 29400-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 33491-2023.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 29400-2023.docx", "A 29400-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 33491-2023.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 29400-2023.docx", "A 29400-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 33491-2023.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 29400-2023.docx", "A 29400-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 33491-2023.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 29400-2023.docx", "A 29400-2023")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 33298-2023</t>
+          <t>A 33491-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45127</v>
+        <v>45118</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2990,17 +2986,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.6</v>
+        <v>32.3</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -3028,45 +3024,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 33298-2023.xlsx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 33491-2023.xlsx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 33298-2023.png", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 33491-2023.png", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 33298-2023.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 33491-2023.docx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 33298-2023.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 33491-2023.docx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 33298-2023.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 33491-2023.docx", "A 33491-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 33298-2023.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 33491-2023.docx", "A 33491-2023")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 45906-2018</t>
+          <t>A 33298-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43363</v>
+        <v>45127</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3078,14 +3074,19 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -3109,21 +3110,49 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 33298-2023.xlsx", "A 33298-2023")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 33298-2023.png", "A 33298-2023")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 33298-2023.docx", "A 33298-2023")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 33298-2023.docx", "A 33298-2023")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 33298-2023.docx", "A 33298-2023")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 33298-2023.docx", "A 33298-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 69675-2018</t>
+          <t>A 45906-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43444</v>
+        <v>43363</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3136,7 +3165,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3173,14 +3202,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 70699-2018</t>
+          <t>A 69675-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43451</v>
+        <v>43444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3193,7 +3222,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3230,14 +3259,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 867-2019</t>
+          <t>A 70699-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43472</v>
+        <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3250,7 +3279,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3287,14 +3316,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 1426-2019</t>
+          <t>A 867-2019</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43473</v>
+        <v>43472</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3307,7 +3336,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3344,14 +3373,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 3794-2019</t>
+          <t>A 1426-2019</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43482</v>
+        <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3364,7 +3393,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3401,14 +3430,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 3796-2019</t>
+          <t>A 3794-2019</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>43482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3421,7 +3450,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3458,14 +3487,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 5746-2019</t>
+          <t>A 3796-2019</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43490</v>
+        <v>43482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3478,7 +3507,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3515,14 +3544,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12538-2019</t>
+          <t>A 5746-2019</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43524</v>
+        <v>43490</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3535,7 +3564,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>8.699999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3572,14 +3601,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 17691-2019</t>
+          <t>A 12538-2019</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43556</v>
+        <v>43524</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3591,13 +3620,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>3.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3634,14 +3658,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 18095-2019</t>
+          <t>A 17691-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3655,11 +3679,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3696,14 +3720,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 18085-2019</t>
+          <t>A 18095-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>43558</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3721,7 +3745,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3758,14 +3782,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 19095-2019</t>
+          <t>A 18085-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43564</v>
+        <v>43558</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3777,8 +3801,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3815,14 +3844,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 21734-2019</t>
+          <t>A 19095-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43581</v>
+        <v>43564</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3834,13 +3863,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3873,38 +3897,18 @@
         <v>0</v>
       </c>
       <c r="R41" s="2" t="inlineStr"/>
-      <c r="U41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 21734-2019.png", "A 21734-2019")</f>
-        <v/>
-      </c>
-      <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 21734-2019.docx", "A 21734-2019")</f>
-        <v/>
-      </c>
-      <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 21734-2019.docx", "A 21734-2019")</f>
-        <v/>
-      </c>
-      <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 21734-2019.docx", "A 21734-2019")</f>
-        <v/>
-      </c>
-      <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 21734-2019.docx", "A 21734-2019")</f>
-        <v/>
-      </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 22734-2019</t>
+          <t>A 21734-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43588</v>
+        <v>43581</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3922,7 +3926,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.7</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3955,18 +3959,38 @@
         <v>0</v>
       </c>
       <c r="R42" s="2" t="inlineStr"/>
+      <c r="U42">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 21734-2019.png", "A 21734-2019")</f>
+        <v/>
+      </c>
+      <c r="V42">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 21734-2019.docx", "A 21734-2019")</f>
+        <v/>
+      </c>
+      <c r="W42">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 21734-2019.docx", "A 21734-2019")</f>
+        <v/>
+      </c>
+      <c r="X42">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 21734-2019.docx", "A 21734-2019")</f>
+        <v/>
+      </c>
+      <c r="Y42">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 21734-2019.docx", "A 21734-2019")</f>
+        <v/>
+      </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 23881-2019</t>
+          <t>A 22734-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43595</v>
+        <v>43588</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3978,8 +4002,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4016,14 +4045,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 24756-2019</t>
+          <t>A 23881-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43601</v>
+        <v>43595</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4035,13 +4064,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4078,14 +4102,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 25517-2019</t>
+          <t>A 24756-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43606</v>
+        <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4103,7 +4127,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4140,14 +4164,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 30591-2019</t>
+          <t>A 25517-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43635</v>
+        <v>43606</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4165,7 +4189,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>8.5</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4202,14 +4226,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30592-2019</t>
+          <t>A 30591-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
         <v>43635</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4227,7 +4251,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4264,14 +4288,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 40385-2019</t>
+          <t>A 30592-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43696</v>
+        <v>43635</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4289,7 +4313,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4322,38 +4346,18 @@
         <v>0</v>
       </c>
       <c r="R48" s="2" t="inlineStr"/>
-      <c r="U48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 40385-2019.png", "A 40385-2019")</f>
-        <v/>
-      </c>
-      <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 40385-2019.docx", "A 40385-2019")</f>
-        <v/>
-      </c>
-      <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 40385-2019.docx", "A 40385-2019")</f>
-        <v/>
-      </c>
-      <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 40385-2019.docx", "A 40385-2019")</f>
-        <v/>
-      </c>
-      <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 40385-2019.docx", "A 40385-2019")</f>
-        <v/>
-      </c>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 42253-2019</t>
+          <t>A 40385-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43703</v>
+        <v>43696</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4371,7 +4375,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4404,18 +4408,38 @@
         <v>0</v>
       </c>
       <c r="R49" s="2" t="inlineStr"/>
+      <c r="U49">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 40385-2019.png", "A 40385-2019")</f>
+        <v/>
+      </c>
+      <c r="V49">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 40385-2019.docx", "A 40385-2019")</f>
+        <v/>
+      </c>
+      <c r="W49">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 40385-2019.docx", "A 40385-2019")</f>
+        <v/>
+      </c>
+      <c r="X49">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 40385-2019.docx", "A 40385-2019")</f>
+        <v/>
+      </c>
+      <c r="Y49">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 40385-2019.docx", "A 40385-2019")</f>
+        <v/>
+      </c>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44791-2019</t>
+          <t>A 42253-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43707</v>
+        <v>43703</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4427,8 +4451,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>14.7</v>
+        <v>2.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4465,14 +4494,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 44196-2019</t>
+          <t>A 44791-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43710</v>
+        <v>43707</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4484,13 +4513,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>2.6</v>
+        <v>14.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4527,14 +4551,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 44218-2019</t>
+          <t>A 44196-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
         <v>43710</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4552,7 +4576,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4589,14 +4613,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 46153-2019</t>
+          <t>A 44218-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43718</v>
+        <v>43710</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4614,7 +4638,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4651,14 +4675,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46161-2019</t>
+          <t>A 46153-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
         <v>43718</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4676,7 +4700,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4713,14 +4737,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 49296-2019</t>
+          <t>A 46161-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43731</v>
+        <v>43718</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4738,7 +4762,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4775,14 +4799,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 49361-2019</t>
+          <t>A 49296-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
         <v>43731</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4800,7 +4824,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4837,14 +4861,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 50696-2019</t>
+          <t>A 49361-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43738</v>
+        <v>43731</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4862,7 +4886,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4899,14 +4923,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 50694-2019</t>
+          <t>A 50696-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
         <v>43738</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4918,8 +4942,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4956,14 +4985,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 51927-2019</t>
+          <t>A 50694-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43741</v>
+        <v>43738</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4973,11 +5002,6 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5018,14 +5042,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 53312-2019</t>
+          <t>A 51927-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43748</v>
+        <v>43741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5037,8 +5061,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5075,14 +5104,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 53850-2019</t>
+          <t>A 53312-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43752</v>
+        <v>43748</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5094,13 +5123,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>6.1</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5137,14 +5161,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 53908-2019</t>
+          <t>A 53850-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
         <v>43752</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5162,7 +5186,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.3</v>
+        <v>6.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5199,14 +5223,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 53930-2019</t>
+          <t>A 53908-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
         <v>43752</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5224,7 +5248,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5261,14 +5285,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 53975-2019</t>
+          <t>A 53930-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>43752</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5286,7 +5310,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5323,14 +5347,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 54934-2019</t>
+          <t>A 53975-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43755</v>
+        <v>43752</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5342,8 +5366,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5380,14 +5409,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56578-2019</t>
+          <t>A 54934-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43763</v>
+        <v>43755</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5399,13 +5428,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>7.1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5442,14 +5466,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 59116-2019</t>
+          <t>A 56578-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43775</v>
+        <v>43763</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5461,8 +5485,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>7.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5499,14 +5528,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59115-2019</t>
+          <t>A 59116-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
         <v>43775</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5519,7 +5548,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5556,14 +5585,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60049-2019</t>
+          <t>A 59115-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43777</v>
+        <v>43775</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5575,13 +5604,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5618,14 +5642,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 60262-2019</t>
+          <t>A 60049-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43780</v>
+        <v>43777</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5643,7 +5667,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5680,14 +5704,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 60552-2019</t>
+          <t>A 60262-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43781</v>
+        <v>43780</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5705,7 +5729,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5742,14 +5766,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 61168-2019</t>
+          <t>A 60552-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43782</v>
+        <v>43781</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5761,8 +5785,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5799,14 +5828,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 62091-2019</t>
+          <t>A 61168-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>43782</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5819,7 +5848,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5856,14 +5885,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 63588-2019</t>
+          <t>A 62091-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43795</v>
+        <v>43782</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5876,7 +5905,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5913,14 +5942,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 63585-2019</t>
+          <t>A 63588-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
         <v>43795</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5933,7 +5962,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5970,14 +5999,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 6678-2020</t>
+          <t>A 63585-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43867</v>
+        <v>43795</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5989,13 +6018,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6032,14 +6056,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6645-2020</t>
+          <t>A 6678-2020</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
         <v>43867</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6051,8 +6075,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6089,14 +6118,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 11133-2020</t>
+          <t>A 6645-2020</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43889</v>
+        <v>43867</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6108,13 +6137,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6151,14 +6175,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 11130-2020</t>
+          <t>A 11133-2020</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
         <v>43889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6176,7 +6200,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6213,14 +6237,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 11131-2020</t>
+          <t>A 11130-2020</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
         <v>43889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6238,7 +6262,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6275,14 +6299,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 12406-2020</t>
+          <t>A 11131-2020</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43896</v>
+        <v>43889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6294,8 +6318,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6332,14 +6361,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28681-2020</t>
+          <t>A 12406-2020</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43999</v>
+        <v>43896</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6351,13 +6380,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6394,14 +6418,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 29321-2020</t>
+          <t>A 28681-2020</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6413,8 +6437,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>7.1</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6451,14 +6480,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31794-2020</t>
+          <t>A 29321-2020</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44014</v>
+        <v>44000</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6470,13 +6499,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6513,14 +6537,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 32342-2020</t>
+          <t>A 31794-2020</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6538,7 +6562,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6575,14 +6599,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 36111-2020</t>
+          <t>A 32342-2020</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44048</v>
+        <v>44016</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6594,8 +6618,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6632,14 +6661,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 36467-2020</t>
+          <t>A 36111-2020</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6649,11 +6678,6 @@
       <c r="E87" t="inlineStr">
         <is>
           <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -6694,14 +6718,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 37851-2020</t>
+          <t>A 36467-2020</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44057</v>
+        <v>44049</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6713,8 +6737,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6751,14 +6780,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 42959-2020</t>
+          <t>A 37851-2020</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44078</v>
+        <v>44057</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6771,7 +6800,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6808,14 +6837,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 43907-2020</t>
+          <t>A 42959-2020</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44083</v>
+        <v>44078</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6827,13 +6856,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6870,14 +6894,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 44230-2020</t>
+          <t>A 43907-2020</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6889,8 +6913,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>9.4</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6927,14 +6956,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 46274-2020</t>
+          <t>A 44230-2020</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44092</v>
+        <v>44084</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6946,13 +6975,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>9.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6989,14 +7013,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46269-2020</t>
+          <t>A 46274-2020</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7014,7 +7038,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7051,14 +7075,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46281-2020</t>
+          <t>A 46269-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7076,7 +7100,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7113,14 +7137,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46270-2020</t>
+          <t>A 46281-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7138,7 +7162,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7175,14 +7199,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46276-2020</t>
+          <t>A 46270-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7200,7 +7224,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7237,14 +7261,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 46267-2020</t>
+          <t>A 46276-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7262,7 +7286,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>11.8</v>
+        <v>3.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7299,14 +7323,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46278-2020</t>
+          <t>A 46267-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7324,7 +7348,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>11.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7361,14 +7385,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 49708-2020</t>
+          <t>A 46278-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44106</v>
+        <v>44092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7380,8 +7404,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7418,14 +7447,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 55301-2020</t>
+          <t>A 49708-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44130</v>
+        <v>44106</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7475,14 +7504,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 56603-2020</t>
+          <t>A 55301-2020</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44137</v>
+        <v>44130</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7494,13 +7523,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7537,14 +7561,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 56671-2020</t>
+          <t>A 56603-2020</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
         <v>44137</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7562,7 +7586,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7599,14 +7623,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58322-2020</t>
+          <t>A 56671-2020</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44145</v>
+        <v>44137</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7618,8 +7642,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7656,14 +7685,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 61835-2020</t>
+          <t>A 58322-2020</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44159</v>
+        <v>44145</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7676,7 +7705,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>9.4</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7713,14 +7742,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 61836-2020</t>
+          <t>A 61835-2020</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
         <v>44159</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7733,7 +7762,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>12.4</v>
+        <v>9.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7770,14 +7799,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 62475-2020</t>
+          <t>A 61836-2020</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7790,7 +7819,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.2</v>
+        <v>12.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7827,14 +7856,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 63951-2020</t>
+          <t>A 62475-2020</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44167</v>
+        <v>44160</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7847,7 +7876,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7884,14 +7913,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 68397-2020</t>
+          <t>A 63951-2020</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44186</v>
+        <v>44167</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7904,7 +7933,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7941,14 +7970,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 3802-2021</t>
+          <t>A 68397-2020</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44221</v>
+        <v>44186</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7961,7 +7990,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7998,14 +8027,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 5557-2021</t>
+          <t>A 3802-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44230</v>
+        <v>44221</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8018,7 +8047,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8055,14 +8084,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 12057-2021</t>
+          <t>A 5557-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44266</v>
+        <v>44230</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8075,7 +8104,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8112,14 +8141,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 12399-2021</t>
+          <t>A 12057-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8132,7 +8161,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8169,14 +8198,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 20119-2021</t>
+          <t>A 12399-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44314</v>
+        <v>44267</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8189,7 +8218,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8226,14 +8255,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 24851-2021</t>
+          <t>A 20119-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44340</v>
+        <v>44314</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8245,13 +8274,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8288,14 +8312,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 31123-2021</t>
+          <t>A 24851-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44368</v>
+        <v>44340</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8307,8 +8331,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8345,14 +8374,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 47531-2021</t>
+          <t>A 31123-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44447</v>
+        <v>44368</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8365,7 +8394,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>7.6</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8402,14 +8431,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47538-2021</t>
+          <t>A 47531-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
         <v>44447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8422,7 +8451,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>7.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8459,14 +8488,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 50278-2021</t>
+          <t>A 47538-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44456</v>
+        <v>44447</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8479,7 +8508,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8516,14 +8545,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 54154-2021</t>
+          <t>A 50278-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44470</v>
+        <v>44456</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8535,13 +8564,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>7.8</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8578,14 +8602,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 54616-2021</t>
+          <t>A 54154-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44473</v>
+        <v>44470</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8599,11 +8623,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8640,14 +8664,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 54826-2021</t>
+          <t>A 54616-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
         <v>44473</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8665,7 +8689,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8702,14 +8726,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 64706-2021</t>
+          <t>A 54826-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44512</v>
+        <v>44473</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8721,8 +8745,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8759,14 +8788,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 74254-2021</t>
+          <t>A 64706-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44558</v>
+        <v>44512</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8779,7 +8808,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>8.1</v>
+        <v>0.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8816,14 +8845,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 74255-2021</t>
+          <t>A 74254-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
         <v>44558</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8836,7 +8865,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.4</v>
+        <v>8.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8873,14 +8902,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 6560-2022</t>
+          <t>A 74255-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44601</v>
+        <v>44558</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8893,7 +8922,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>12.2</v>
+        <v>3.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8930,14 +8959,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 10184-2022</t>
+          <t>A 6560-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44622</v>
+        <v>44601</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8950,7 +8979,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>12.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8987,14 +9016,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 10602-2022</t>
+          <t>A 10184-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44624</v>
+        <v>44622</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9007,7 +9036,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9044,14 +9073,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 10587-2022</t>
+          <t>A 10602-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
         <v>44624</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9064,7 +9093,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9101,14 +9130,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 13807-2022</t>
+          <t>A 10587-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44649</v>
+        <v>44624</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9121,7 +9150,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9158,14 +9187,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 16371-2022</t>
+          <t>A 13807-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44671</v>
+        <v>44649</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9178,7 +9207,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9215,14 +9244,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 17762-2022</t>
+          <t>A 16371-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9235,7 +9264,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9272,14 +9301,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 19292-2022</t>
+          <t>A 17762-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44692</v>
+        <v>44680</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9292,7 +9321,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9329,14 +9358,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 29606-2022</t>
+          <t>A 19292-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44754</v>
+        <v>44692</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9348,13 +9377,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9391,14 +9415,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 31205-2022</t>
+          <t>A 29606-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44770</v>
+        <v>44754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9416,7 +9440,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9453,14 +9477,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 31248-2022</t>
+          <t>A 31205-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44771</v>
+        <v>44770</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9478,7 +9502,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9515,14 +9539,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 32330-2022</t>
+          <t>A 31248-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44781</v>
+        <v>44771</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9540,7 +9564,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>6.9</v>
+        <v>2.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9577,14 +9601,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 33672-2022</t>
+          <t>A 32330-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44789</v>
+        <v>44781</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9602,7 +9626,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>14.4</v>
+        <v>6.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9639,14 +9663,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 36882-2022</t>
+          <t>A 33672-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44805</v>
+        <v>44789</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9664,7 +9688,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>7.3</v>
+        <v>14.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9701,14 +9725,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 37680-2022</t>
+          <t>A 36882-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44810</v>
+        <v>44805</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9720,8 +9744,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9758,14 +9787,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 37767-2022</t>
+          <t>A 37680-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
         <v>44810</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9777,13 +9806,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.2</v>
+        <v>6.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9820,14 +9844,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 43603-2022</t>
+          <t>A 37767-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44837</v>
+        <v>44810</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9845,7 +9869,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>11.9</v>
+        <v>2.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9882,14 +9906,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 43610-2022</t>
+          <t>A 43603-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
         <v>44837</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9907,7 +9931,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>17.6</v>
+        <v>11.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9944,14 +9968,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 52320-2022</t>
+          <t>A 43610-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44873</v>
+        <v>44837</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9963,8 +9987,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>6.1</v>
+        <v>17.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10001,14 +10030,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54192-2022</t>
+          <t>A 52320-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44881</v>
+        <v>44873</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10020,13 +10049,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>2.4</v>
+        <v>6.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10063,14 +10087,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 54616-2022</t>
+          <t>A 54192-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44883</v>
+        <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10084,11 +10108,11 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10125,14 +10149,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 57971-2022</t>
+          <t>A 54616-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44900</v>
+        <v>44883</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10146,11 +10170,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10187,14 +10211,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 6929-2023</t>
+          <t>A 57971-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44967</v>
+        <v>44900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10206,8 +10230,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10244,14 +10273,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 10161-2023</t>
+          <t>A 6929-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44986</v>
+        <v>44967</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10263,13 +10292,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10306,14 +10330,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 11607-2023</t>
+          <t>A 10161-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44994</v>
+        <v>44986</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10331,7 +10355,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10368,14 +10392,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 13745-2023</t>
+          <t>A 11607-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45007</v>
+        <v>44994</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10393,7 +10417,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10430,14 +10454,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 13742-2023</t>
+          <t>A 13745-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
         <v>45007</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10455,7 +10479,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10492,14 +10516,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 13744-2023</t>
+          <t>A 13742-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
         <v>45007</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10554,14 +10578,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 18693-2023</t>
+          <t>A 13744-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45043</v>
+        <v>45007</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10573,8 +10597,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10611,14 +10640,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 18930-2023</t>
+          <t>A 18693-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45044</v>
+        <v>45043</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10631,7 +10660,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10668,14 +10697,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 19476-2023</t>
+          <t>A 18930-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45050</v>
+        <v>45044</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10688,7 +10717,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10725,14 +10754,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 19475-2023</t>
+          <t>A 19476-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
         <v>45050</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10745,7 +10774,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10782,14 +10811,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 19549-2023</t>
+          <t>A 19475-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
         <v>45050</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10802,7 +10831,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10846,7 +10875,7 @@
         <v>45069</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10908,7 +10937,7 @@
         <v>45070</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10965,7 +10994,7 @@
         <v>45072</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11022,7 +11051,7 @@
         <v>45072</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11079,7 +11108,7 @@
         <v>45084</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11136,7 +11165,7 @@
         <v>45097</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11193,7 +11222,7 @@
         <v>45099</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11250,7 +11279,7 @@
         <v>45117</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11307,7 +11336,7 @@
         <v>45117</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11364,7 +11393,7 @@
         <v>45117</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11421,7 +11450,7 @@
         <v>45118</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11483,7 +11512,7 @@
         <v>45118</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11545,7 +11574,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11602,7 +11631,7 @@
         <v>45118</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11664,7 +11693,7 @@
         <v>45127</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11726,7 +11755,7 @@
         <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11783,7 +11812,7 @@
         <v>45147</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11840,7 +11869,7 @@
         <v>45163</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11902,7 +11931,7 @@
         <v>45163</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45015</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         <v>44795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -935,64 +935,180 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
+          <t>A 38730-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>23</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Skuggnål
+Blå taggsvamp
+Dvärgbägarlav
+Grantaggsvamp
+Gropticka
+Gul taggsvamp
+Kortskaftad ärgspik
+Motaggsvamp
+Orange taggsvamp
+Stjärntagging
+Svart taggsvamp
+Talltita
+Vedskivlav
+Vedtrappmossa
+Dropptaggsvamp
+Fjällig taggsvamp s.str.
+Grönpyrola
+Kattfotslav
+Skarp dropptaggsvamp
+Tallfingersvamp
+Vedticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38730-2023.xlsx", "A 38730-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38730-2023.png", "A 38730-2023")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 38730-2023.png", "A 38730-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38730-2023.docx", "A 38730-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38730-2023.docx", "A 38730-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38730-2023.docx", "A 38730-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38730-2023.docx", "A 38730-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>A 13746-2023</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>45007</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="C6" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" t="n">
         <v>4.1</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>4</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>5</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q6" t="n">
         <v>12</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Koralltaggsvamp
@@ -1008,91 +1124,91 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13746-2023.xlsx", "A 13746-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13746-2023.png", "A 13746-2023")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 13746-2023.png", "A 13746-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13746-2023.docx", "A 13746-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13746-2023.docx", "A 13746-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13746-2023.docx", "A 13746-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13746-2023.docx", "A 13746-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 65026-2021</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>44512</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C7" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>14.7</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>4</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>4</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>5</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>9</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Brödtaggsvamp
 Knärot
@@ -1105,96 +1221,96 @@
 Trådticka</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 65026-2021.xlsx", "A 65026-2021")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 65026-2021.png", "A 65026-2021")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 65026-2021.png", "A 65026-2021")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 65026-2021.docx", "A 65026-2021")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 65026-2021.docx", "A 65026-2021")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 65026-2021.docx", "A 65026-2021")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 65026-2021.docx", "A 65026-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 30593-2019</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>43635</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>4.5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>3</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>2</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>2</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>2</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>6</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Rynkskinn
@@ -1204,96 +1320,96 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 30593-2019.xlsx", "A 30593-2019")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 30593-2019.png", "A 30593-2019")</f>
         <v/>
       </c>
-      <c r="U7">
+      <c r="U8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 30593-2019.png", "A 30593-2019")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 30593-2019.docx", "A 30593-2019")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 30593-2019.docx", "A 30593-2019")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 30593-2019.docx", "A 30593-2019")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 30593-2019.docx", "A 30593-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 13749-2023</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45007</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>1.5</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>6</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Flattoppad klubbsvamp
 Gultoppig fingersvamp
@@ -1303,92 +1419,92 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13749-2023.xlsx", "A 13749-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13749-2023.png", "A 13749-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13749-2023.docx", "A 13749-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13749-2023.docx", "A 13749-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13749-2023.docx", "A 13749-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13749-2023.docx", "A 13749-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 13740-2023</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45007</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="C10" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>2.7</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>3</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>4</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>5</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Garnlav
@@ -1397,96 +1513,96 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13740-2023.xlsx", "A 13740-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13740-2023.png", "A 13740-2023")</f>
         <v/>
       </c>
-      <c r="U9">
+      <c r="U10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 13740-2023.png", "A 13740-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13740-2023.docx", "A 13740-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13740-2023.docx", "A 13740-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13740-2023.docx", "A 13740-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13740-2023.docx", "A 13740-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 13750-2023</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45007</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="C11" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>1.1</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>3</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>3</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>5</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Gultoppig fingersvamp
 Leptoporus mollis
@@ -1495,937 +1611,864 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13750-2023.xlsx", "A 13750-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13750-2023.png", "A 13750-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13750-2023.docx", "A 13750-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13750-2023.docx", "A 13750-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13750-2023.docx", "A 13750-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13750-2023.docx", "A 13750-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 38738-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Svartvit taggsvamp
+Fjällig taggsvamp s.str.
+Grönpyrola</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38738-2023.xlsx", "A 38738-2023")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38738-2023.png", "A 38738-2023")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 38738-2023.png", "A 38738-2023")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38738-2023.docx", "A 38738-2023")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38738-2023.docx", "A 38738-2023")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38738-2023.docx", "A 38738-2023")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38738-2023.docx", "A 38738-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 30590-2019</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>43635</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G13" t="n">
         <v>7.2</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H13" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>2</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q13" t="n">
         <v>3</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Kortskaftad ärgspik
 Plattlummer</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 30590-2019.xlsx", "A 30590-2019")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 30590-2019.png", "A 30590-2019")</f>
         <v/>
       </c>
-      <c r="U11">
+      <c r="U13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 30590-2019.png", "A 30590-2019")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 30590-2019.docx", "A 30590-2019")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 30590-2019.docx", "A 30590-2019")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 30590-2019.docx", "A 30590-2019")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 30590-2019.docx", "A 30590-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 10436-2022</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44623</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C14" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>6.3</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q14" t="n">
         <v>3</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Björksplintborre
 Vedticka</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 10436-2022.xlsx", "A 10436-2022")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 10436-2022.png", "A 10436-2022")</f>
         <v/>
       </c>
-      <c r="U12">
+      <c r="U14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 10436-2022.png", "A 10436-2022")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 10436-2022.docx", "A 10436-2022")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 10436-2022.docx", "A 10436-2022")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 10436-2022.docx", "A 10436-2022")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 10436-2022.docx", "A 10436-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 21731-2019</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>43581</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G15" t="n">
         <v>3.8</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Tvåblad
 Revlummer</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 21731-2019.xlsx", "A 21731-2019")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 21731-2019.png", "A 21731-2019")</f>
         <v/>
       </c>
-      <c r="U13">
+      <c r="U15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 21731-2019.png", "A 21731-2019")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 21731-2019.docx", "A 21731-2019")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 21731-2019.docx", "A 21731-2019")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 21731-2019.docx", "A 21731-2019")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 21731-2019.docx", "A 21731-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 47483-2021</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>44447</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C16" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>6.9</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q16" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 47483-2021.xlsx", "A 47483-2021")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 47483-2021.png", "A 47483-2021")</f>
         <v/>
       </c>
-      <c r="U14">
+      <c r="U16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 47483-2021.png", "A 47483-2021")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 47483-2021.docx", "A 47483-2021")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 47483-2021.docx", "A 47483-2021")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 47483-2021.docx", "A 47483-2021")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 47483-2021.docx", "A 47483-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 27216-2022</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44741</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G17" t="n">
         <v>6.4</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Plattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 27216-2022.xlsx", "A 27216-2022")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 27216-2022.png", "A 27216-2022")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 27216-2022.docx", "A 27216-2022")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 27216-2022.docx", "A 27216-2022")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 27216-2022.docx", "A 27216-2022")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 27216-2022.docx", "A 27216-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 38862-2022</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>44816</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C18" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>5.1</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Jättesvampmal</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38862-2022.xlsx", "A 38862-2022")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38862-2022.png", "A 38862-2022")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38862-2022.docx", "A 38862-2022")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38862-2022.docx", "A 38862-2022")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38862-2022.docx", "A 38862-2022")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38862-2022.docx", "A 38862-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 38855-2022</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>44816</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C19" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>7.1</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P19" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Blåsippa</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38855-2022.xlsx", "A 38855-2022")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38855-2022.png", "A 38855-2022")</f>
         <v/>
       </c>
-      <c r="U17">
+      <c r="U19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 38855-2022.png", "A 38855-2022")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38855-2022.docx", "A 38855-2022")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38855-2022.docx", "A 38855-2022")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38855-2022.docx", "A 38855-2022")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38855-2022.docx", "A 38855-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 19549-2023</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>45050</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C20" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>3.2</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Svavelriska
 Blåsippa</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 19549-2023.xlsx", "A 19549-2023")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 19549-2023.png", "A 19549-2023")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 19549-2023.docx", "A 19549-2023")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 19549-2023.docx", "A 19549-2023")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 19549-2023.docx", "A 19549-2023")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 19549-2023.docx", "A 19549-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 38174-2019</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>43684</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>14</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Ullticka</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38174-2019.xlsx", "A 38174-2019")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38174-2019.png", "A 38174-2019")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38174-2019.docx", "A 38174-2019")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38174-2019.docx", "A 38174-2019")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38174-2019.docx", "A 38174-2019")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38174-2019.docx", "A 38174-2019")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 44963-2020</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>44088</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>HOFORS</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Slåtterfibbla</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 44963-2020.xlsx", "A 44963-2020")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 44963-2020.png", "A 44963-2020")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 44963-2020.docx", "A 44963-2020")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 44963-2020.docx", "A 44963-2020")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 44963-2020.docx", "A 44963-2020")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 44963-2020.docx", "A 44963-2020")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 22096-2021</t>
+          <t>A 38174-2019</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44323</v>
+        <v>43684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2437,25 +2480,20 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>14</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2470,56 +2508,52 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 22096-2021.xlsx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 38174-2019.xlsx", "A 38174-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 22096-2021.png", "A 22096-2021")</f>
-        <v/>
-      </c>
-      <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 22096-2021.png", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 38174-2019.png", "A 38174-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 22096-2021.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 38174-2019.docx", "A 38174-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 22096-2021.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 38174-2019.docx", "A 38174-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 22096-2021.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 38174-2019.docx", "A 38174-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 22096-2021.docx", "A 22096-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 38174-2019.docx", "A 38174-2019")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 54828-2021</t>
+          <t>A 44963-2020</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44473</v>
+        <v>44088</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,25 +2565,20 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2564,56 +2593,52 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 54828-2021.xlsx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 44963-2020.xlsx", "A 44963-2020")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 54828-2021.png", "A 54828-2021")</f>
-        <v/>
-      </c>
-      <c r="U22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 54828-2021.png", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 44963-2020.png", "A 44963-2020")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 54828-2021.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 44963-2020.docx", "A 44963-2020")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 54828-2021.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 44963-2020.docx", "A 44963-2020")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 54828-2021.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 44963-2020.docx", "A 44963-2020")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 54828-2021.docx", "A 54828-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 44963-2020.docx", "A 44963-2020")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 64604-2021</t>
+          <t>A 22096-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44511</v>
+        <v>44323</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2627,24 +2652,24 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>1.7</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
@@ -2655,55 +2680,59 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Bågpraktmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 64604-2021.xlsx", "A 64604-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 22096-2021.xlsx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 64604-2021.png", "A 64604-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 22096-2021.png", "A 22096-2021")</f>
+        <v/>
+      </c>
+      <c r="U23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 22096-2021.png", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 64604-2021.docx", "A 64604-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 22096-2021.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 64604-2021.docx", "A 64604-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 22096-2021.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 64604-2021.docx", "A 64604-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 22096-2021.docx", "A 22096-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 64604-2021.docx", "A 64604-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 22096-2021.docx", "A 22096-2021")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 13741-2023</t>
+          <t>A 54828-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45007</v>
+        <v>44473</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2717,24 +2746,24 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>5.1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
@@ -2745,55 +2774,59 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13741-2023.xlsx", "A 13741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 54828-2021.xlsx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13741-2023.png", "A 13741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 54828-2021.png", "A 54828-2021")</f>
+        <v/>
+      </c>
+      <c r="U24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 54828-2021.png", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13741-2023.docx", "A 13741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 54828-2021.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13741-2023.docx", "A 13741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 54828-2021.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13741-2023.docx", "A 13741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 54828-2021.docx", "A 54828-2021")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13741-2023.docx", "A 13741-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 54828-2021.docx", "A 54828-2021")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 14358-2023</t>
+          <t>A 64604-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45012</v>
+        <v>44511</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2807,11 +2840,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2845,45 +2878,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Bågpraktmossa</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 14358-2023.xlsx", "A 14358-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 64604-2021.xlsx", "A 64604-2021")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 14358-2023.png", "A 14358-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 64604-2021.png", "A 64604-2021")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 14358-2023.docx", "A 14358-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 64604-2021.docx", "A 64604-2021")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 14358-2023.docx", "A 14358-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 64604-2021.docx", "A 64604-2021")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 14358-2023.docx", "A 14358-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 64604-2021.docx", "A 64604-2021")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 14358-2023.docx", "A 14358-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 64604-2021.docx", "A 64604-2021")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 29400-2023</t>
+          <t>A 13741-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45106</v>
+        <v>45007</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2895,20 +2928,25 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>6.8</v>
+        <v>1.6</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2920,59 +2958,55 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 29400-2023.xlsx", "A 29400-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 13741-2023.xlsx", "A 13741-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 29400-2023.png", "A 29400-2023")</f>
-        <v/>
-      </c>
-      <c r="U26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 29400-2023.png", "A 29400-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 13741-2023.png", "A 13741-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 29400-2023.docx", "A 29400-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 13741-2023.docx", "A 13741-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 29400-2023.docx", "A 29400-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 13741-2023.docx", "A 13741-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 29400-2023.docx", "A 29400-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 13741-2023.docx", "A 13741-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 29400-2023.docx", "A 29400-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 13741-2023.docx", "A 13741-2023")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 33491-2023</t>
+          <t>A 14358-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45118</v>
+        <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2986,17 +3020,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>32.3</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -3024,45 +3058,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 33491-2023.xlsx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 14358-2023.xlsx", "A 14358-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 33491-2023.png", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 14358-2023.png", "A 14358-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 33491-2023.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 14358-2023.docx", "A 14358-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 33491-2023.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 14358-2023.docx", "A 14358-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 33491-2023.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 14358-2023.docx", "A 14358-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 33491-2023.docx", "A 33491-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 14358-2023.docx", "A 14358-2023")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 33298-2023</t>
+          <t>A 29400-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45127</v>
+        <v>45106</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3074,26 +3108,21 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>1</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
@@ -3104,55 +3133,59 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 33298-2023.xlsx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 29400-2023.xlsx", "A 29400-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 33298-2023.png", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 29400-2023.png", "A 29400-2023")</f>
+        <v/>
+      </c>
+      <c r="U28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 29400-2023.png", "A 29400-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 33298-2023.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 29400-2023.docx", "A 29400-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 33298-2023.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 29400-2023.docx", "A 29400-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 33298-2023.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 29400-2023.docx", "A 29400-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 33298-2023.docx", "A 33298-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 29400-2023.docx", "A 29400-2023")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 45906-2018</t>
+          <t>A 33491-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43363</v>
+        <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3164,11 +3197,16 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>3.8</v>
+        <v>32.3</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3195,21 +3233,49 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 33491-2023.xlsx", "A 33491-2023")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 33491-2023.png", "A 33491-2023")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 33491-2023.docx", "A 33491-2023")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 33491-2023.docx", "A 33491-2023")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 33491-2023.docx", "A 33491-2023")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 33491-2023.docx", "A 33491-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 69675-2018</t>
+          <t>A 33298-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43444</v>
+        <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,14 +3287,19 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3252,21 +3323,49 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="S30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/artfynd/A 33298-2023.xlsx", "A 33298-2023")</f>
+        <v/>
+      </c>
+      <c r="T30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/kartor/A 33298-2023.png", "A 33298-2023")</f>
+        <v/>
+      </c>
+      <c r="V30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 33298-2023.docx", "A 33298-2023")</f>
+        <v/>
+      </c>
+      <c r="W30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 33298-2023.docx", "A 33298-2023")</f>
+        <v/>
+      </c>
+      <c r="X30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 33298-2023.docx", "A 33298-2023")</f>
+        <v/>
+      </c>
+      <c r="Y30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 33298-2023.docx", "A 33298-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 70699-2018</t>
+          <t>A 45906-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43451</v>
+        <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3279,7 +3378,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3316,14 +3415,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 867-2019</t>
+          <t>A 69675-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43472</v>
+        <v>43444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3336,7 +3435,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7.2</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3373,14 +3472,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 1426-2019</t>
+          <t>A 70699-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43473</v>
+        <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,14 +3529,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 3794-2019</t>
+          <t>A 867-2019</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43482</v>
+        <v>43472</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3450,7 +3549,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>7.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3487,14 +3586,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 3796-2019</t>
+          <t>A 1426-2019</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43482</v>
+        <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3507,7 +3606,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3544,14 +3643,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 5746-2019</t>
+          <t>A 3794-2019</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43490</v>
+        <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3564,7 +3663,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3601,14 +3700,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12538-2019</t>
+          <t>A 3796-2019</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43524</v>
+        <v>43482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3621,7 +3720,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>8.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3658,14 +3757,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 17691-2019</t>
+          <t>A 5746-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43556</v>
+        <v>43490</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3677,13 +3776,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3720,14 +3814,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 18095-2019</t>
+          <t>A 12538-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43558</v>
+        <v>43524</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3739,13 +3833,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3782,14 +3871,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 18085-2019</t>
+          <t>A 17691-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43558</v>
+        <v>43556</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3803,11 +3892,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3844,14 +3933,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 19095-2019</t>
+          <t>A 18095-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43564</v>
+        <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3863,8 +3952,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3901,14 +3995,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 21734-2019</t>
+          <t>A 18085-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43581</v>
+        <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3926,7 +4020,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3959,38 +4053,18 @@
         <v>0</v>
       </c>
       <c r="R42" s="2" t="inlineStr"/>
-      <c r="U42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 21734-2019.png", "A 21734-2019")</f>
-        <v/>
-      </c>
-      <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 21734-2019.docx", "A 21734-2019")</f>
-        <v/>
-      </c>
-      <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 21734-2019.docx", "A 21734-2019")</f>
-        <v/>
-      </c>
-      <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 21734-2019.docx", "A 21734-2019")</f>
-        <v/>
-      </c>
-      <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 21734-2019.docx", "A 21734-2019")</f>
-        <v/>
-      </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 22734-2019</t>
+          <t>A 19095-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43588</v>
+        <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4002,13 +4076,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4045,14 +4114,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 23881-2019</t>
+          <t>A 21734-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43595</v>
+        <v>43581</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4064,8 +4133,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4098,18 +4172,38 @@
         <v>0</v>
       </c>
       <c r="R44" s="2" t="inlineStr"/>
+      <c r="U44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 21734-2019.png", "A 21734-2019")</f>
+        <v/>
+      </c>
+      <c r="V44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 21734-2019.docx", "A 21734-2019")</f>
+        <v/>
+      </c>
+      <c r="W44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 21734-2019.docx", "A 21734-2019")</f>
+        <v/>
+      </c>
+      <c r="X44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 21734-2019.docx", "A 21734-2019")</f>
+        <v/>
+      </c>
+      <c r="Y44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 21734-2019.docx", "A 21734-2019")</f>
+        <v/>
+      </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 24756-2019</t>
+          <t>A 22734-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43601</v>
+        <v>43588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4127,7 +4221,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4164,14 +4258,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 25517-2019</t>
+          <t>A 23881-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43606</v>
+        <v>43595</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4183,13 +4277,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4226,14 +4315,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30591-2019</t>
+          <t>A 24756-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43635</v>
+        <v>43601</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4251,7 +4340,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>8.5</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4288,14 +4377,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 30592-2019</t>
+          <t>A 25517-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43635</v>
+        <v>43606</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4313,7 +4402,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4350,14 +4439,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 40385-2019</t>
+          <t>A 30591-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43696</v>
+        <v>43635</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4375,7 +4464,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.7</v>
+        <v>8.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4408,38 +4497,18 @@
         <v>0</v>
       </c>
       <c r="R49" s="2" t="inlineStr"/>
-      <c r="U49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 40385-2019.png", "A 40385-2019")</f>
-        <v/>
-      </c>
-      <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 40385-2019.docx", "A 40385-2019")</f>
-        <v/>
-      </c>
-      <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 40385-2019.docx", "A 40385-2019")</f>
-        <v/>
-      </c>
-      <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 40385-2019.docx", "A 40385-2019")</f>
-        <v/>
-      </c>
-      <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 40385-2019.docx", "A 40385-2019")</f>
-        <v/>
-      </c>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 42253-2019</t>
+          <t>A 30592-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43703</v>
+        <v>43635</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4457,7 +4526,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4494,14 +4563,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 44791-2019</t>
+          <t>A 40385-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43707</v>
+        <v>43696</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4513,8 +4582,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>14.7</v>
+        <v>2.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4547,18 +4621,38 @@
         <v>0</v>
       </c>
       <c r="R51" s="2" t="inlineStr"/>
+      <c r="U51">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/knärot/A 40385-2019.png", "A 40385-2019")</f>
+        <v/>
+      </c>
+      <c r="V51">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomål/A 40385-2019.docx", "A 40385-2019")</f>
+        <v/>
+      </c>
+      <c r="W51">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/klagomålsmail/A 40385-2019.docx", "A 40385-2019")</f>
+        <v/>
+      </c>
+      <c r="X51">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsyn/A 40385-2019.docx", "A 40385-2019")</f>
+        <v/>
+      </c>
+      <c r="Y51">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOFORS/tillsynsmail/A 40385-2019.docx", "A 40385-2019")</f>
+        <v/>
+      </c>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 44196-2019</t>
+          <t>A 42253-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43710</v>
+        <v>43703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4576,7 +4670,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4613,14 +4707,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 44218-2019</t>
+          <t>A 44791-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43710</v>
+        <v>43707</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4632,13 +4726,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>14.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4675,14 +4764,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46153-2019</t>
+          <t>A 44196-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43718</v>
+        <v>43710</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4700,7 +4789,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4737,14 +4826,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 46161-2019</t>
+          <t>A 44218-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43718</v>
+        <v>43710</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4762,7 +4851,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4799,14 +4888,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 49296-2019</t>
+          <t>A 46153-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43731</v>
+        <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4824,7 +4913,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4861,14 +4950,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 49361-2019</t>
+          <t>A 46161-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43731</v>
+        <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4886,7 +4975,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4923,14 +5012,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 50696-2019</t>
+          <t>A 49296-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43738</v>
+        <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4948,7 +5037,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.2</v>
+        <v>3.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4985,14 +5074,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 50694-2019</t>
+          <t>A 49361-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43738</v>
+        <v>43731</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5002,6 +5091,11 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>HOFORS</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5042,14 +5136,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 51927-2019</t>
+          <t>A 50696-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43741</v>
+        <v>43738</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5067,7 +5161,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5104,14 +5198,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 53312-2019</t>
+          <t>A 50694-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43748</v>
+        <v>43738</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5124,7 +5218,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5161,14 +5255,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 53850-2019</t>
+          <t>A 51927-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43752</v>
+        <v>43741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5186,7 +5280,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5223,14 +5317,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 53908-2019</t>
+          <t>A 53312-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43752</v>
+        <v>43748</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5242,13 +5336,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5285,14 +5374,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 53930-2019</t>
+          <t>A 53850-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>43752</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5310,7 +5399,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.8</v>
+        <v>6.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5347,14 +5436,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 53975-2019</t>
+          <t>A 53908-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
         <v>43752</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5372,7 +5461,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5409,14 +5498,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 54934-2019</t>
+          <t>A 53930-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43755</v>
+        <v>43752</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5428,8 +5517,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5466,14 +5560,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 56578-2019</t>
+          <t>A 53975-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43763</v>
+        <v>43752</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5491,7 +5585,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>7.1</v>
+        <v>3.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5528,14 +5622,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59116-2019</t>
+          <t>A 54934-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43775</v>
+        <v>43755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5548,7 +5642,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5585,14 +5679,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 59115-2019</t>
+          <t>A 56578-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43775</v>
+        <v>43763</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5604,8 +5698,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5642,14 +5741,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 60049-2019</t>
+          <t>A 59116-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43777</v>
+        <v>43775</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5661,13 +5760,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5704,14 +5798,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 60262-2019</t>
+          <t>A 59115-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43780</v>
+        <v>43775</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5723,13 +5817,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5766,14 +5855,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 60552-2019</t>
+          <t>A 60049-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43781</v>
+        <v>43777</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5791,7 +5880,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5828,14 +5917,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 61168-2019</t>
+          <t>A 60262-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43782</v>
+        <v>43780</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5847,8 +5936,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5885,14 +5979,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 62091-2019</t>
+          <t>A 60552-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43782</v>
+        <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5904,8 +5998,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5942,14 +6041,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 63588-2019</t>
+          <t>A 61168-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43795</v>
+        <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5962,7 +6061,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5999,14 +6098,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 63585-2019</t>
+          <t>A 62091-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43795</v>
+        <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6019,7 +6118,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6056,14 +6155,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6678-2020</t>
+          <t>A 63588-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43867</v>
+        <v>43795</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6075,13 +6174,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6118,14 +6212,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 6645-2020</t>
+          <t>A 63585-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43867</v>
+        <v>43795</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6138,7 +6232,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6175,14 +6269,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 11133-2020</t>
+          <t>A 6678-2020</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43889</v>
+        <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6200,7 +6294,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6237,14 +6331,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 11130-2020</t>
+          <t>A 6645-2020</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43889</v>
+        <v>43867</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6256,13 +6350,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6299,14 +6388,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 11131-2020</t>
+          <t>A 11133-2020</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
         <v>43889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6361,14 +6450,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 12406-2020</t>
+          <t>A 11130-2020</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43896</v>
+        <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6380,8 +6469,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6418,14 +6512,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28681-2020</t>
+          <t>A 11131-2020</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43999</v>
+        <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6443,7 +6537,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6480,14 +6574,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29321-2020</t>
+          <t>A 12406-2020</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44000</v>
+        <v>43896</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6500,7 +6594,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6537,14 +6631,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 31794-2020</t>
+          <t>A 28681-2020</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44014</v>
+        <v>43999</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6562,7 +6656,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6599,14 +6693,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 32342-2020</t>
+          <t>A 29321-2020</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44016</v>
+        <v>44000</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6618,13 +6712,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>8.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6661,14 +6750,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 36111-2020</t>
+          <t>A 31794-2020</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44048</v>
+        <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6680,8 +6769,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6718,14 +6812,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 36467-2020</t>
+          <t>A 32342-2020</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44049</v>
+        <v>44016</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6743,7 +6837,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6780,14 +6874,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 37851-2020</t>
+          <t>A 36111-2020</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44057</v>
+        <v>44048</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6800,7 +6894,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6837,14 +6931,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42959-2020</t>
+          <t>A 36467-2020</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44078</v>
+        <v>44049</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6856,8 +6950,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6894,14 +6993,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 43907-2020</t>
+          <t>A 37851-2020</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44083</v>
+        <v>44057</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6913,13 +7012,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6956,14 +7050,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 44230-2020</t>
+          <t>A 42959-2020</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44084</v>
+        <v>44078</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6976,7 +7070,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>9.4</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7013,14 +7107,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46274-2020</t>
+          <t>A 43907-2020</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44092</v>
+        <v>44083</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7038,7 +7132,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7075,14 +7169,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46269-2020</t>
+          <t>A 44230-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44092</v>
+        <v>44084</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7094,13 +7188,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.7</v>
+        <v>9.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7137,14 +7226,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46281-2020</t>
+          <t>A 46274-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7162,7 +7251,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7199,14 +7288,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46270-2020</t>
+          <t>A 46269-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7224,7 +7313,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7261,14 +7350,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 46276-2020</t>
+          <t>A 46281-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7286,7 +7375,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7323,14 +7412,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46267-2020</t>
+          <t>A 46270-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7348,7 +7437,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>11.8</v>
+        <v>5.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7385,14 +7474,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46278-2020</t>
+          <t>A 46276-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
         <v>44092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7410,7 +7499,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7447,14 +7536,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 49708-2020</t>
+          <t>A 46267-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44106</v>
+        <v>44092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7466,8 +7555,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1.8</v>
+        <v>11.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7504,14 +7598,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 55301-2020</t>
+          <t>A 46278-2020</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44130</v>
+        <v>44092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7523,8 +7617,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7561,14 +7660,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 56603-2020</t>
+          <t>A 49708-2020</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44137</v>
+        <v>44106</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7580,13 +7679,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7623,14 +7717,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 56671-2020</t>
+          <t>A 55301-2020</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44137</v>
+        <v>44130</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7642,13 +7736,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7685,14 +7774,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 58322-2020</t>
+          <t>A 56603-2020</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44145</v>
+        <v>44137</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7704,8 +7793,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7742,14 +7836,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 61835-2020</t>
+          <t>A 56671-2020</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44159</v>
+        <v>44137</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7761,8 +7855,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>9.4</v>
+        <v>1.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7799,14 +7898,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 61836-2020</t>
+          <t>A 58322-2020</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44159</v>
+        <v>44145</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7819,7 +7918,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>12.4</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7856,14 +7955,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 62475-2020</t>
+          <t>A 61835-2020</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7876,7 +7975,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.2</v>
+        <v>9.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7913,14 +8012,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 63951-2020</t>
+          <t>A 61836-2020</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44167</v>
+        <v>44159</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7933,7 +8032,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.2</v>
+        <v>12.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7970,14 +8069,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 68397-2020</t>
+          <t>A 62475-2020</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7990,7 +8089,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8027,14 +8126,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 3802-2021</t>
+          <t>A 63951-2020</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44221</v>
+        <v>44167</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8047,7 +8146,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8084,14 +8183,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 5557-2021</t>
+          <t>A 68397-2020</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44230</v>
+        <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8104,7 +8203,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8141,14 +8240,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 12057-2021</t>
+          <t>A 3802-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44266</v>
+        <v>44221</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8161,7 +8260,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8198,14 +8297,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 12399-2021</t>
+          <t>A 5557-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44267</v>
+        <v>44230</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8218,7 +8317,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8255,14 +8354,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 20119-2021</t>
+          <t>A 12057-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44314</v>
+        <v>44266</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8275,7 +8374,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8312,14 +8411,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 24851-2021</t>
+          <t>A 12399-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44340</v>
+        <v>44267</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8331,13 +8430,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8374,14 +8468,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 31123-2021</t>
+          <t>A 20119-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44368</v>
+        <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8394,7 +8488,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8431,14 +8525,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47531-2021</t>
+          <t>A 24851-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44447</v>
+        <v>44340</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8450,8 +8544,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8488,14 +8587,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 47538-2021</t>
+          <t>A 31123-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44447</v>
+        <v>44368</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8508,7 +8607,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8545,14 +8644,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 50278-2021</t>
+          <t>A 47531-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44456</v>
+        <v>44447</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8565,7 +8664,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>7.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8602,14 +8701,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 54154-2021</t>
+          <t>A 47538-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44470</v>
+        <v>44447</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8621,13 +8720,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>7.8</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8664,14 +8758,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 54616-2021</t>
+          <t>A 50278-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44473</v>
+        <v>44456</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8683,13 +8777,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>6.9</v>
+        <v>1.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8726,14 +8815,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 54826-2021</t>
+          <t>A 54154-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44473</v>
+        <v>44470</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8747,11 +8836,11 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8788,14 +8877,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 64706-2021</t>
+          <t>A 54616-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44512</v>
+        <v>44473</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8807,8 +8896,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>0.6</v>
+        <v>6.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8845,14 +8939,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 74254-2021</t>
+          <t>A 54826-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44558</v>
+        <v>44473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8864,8 +8958,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8902,14 +9001,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 74255-2021</t>
+          <t>A 64706-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44558</v>
+        <v>44512</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8922,7 +9021,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8959,14 +9058,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 6560-2022</t>
+          <t>A 74254-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44601</v>
+        <v>44558</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8979,7 +9078,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>12.2</v>
+        <v>8.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9016,14 +9115,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 10184-2022</t>
+          <t>A 74255-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44622</v>
+        <v>44558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9036,7 +9135,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9073,14 +9172,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 10602-2022</t>
+          <t>A 6560-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44624</v>
+        <v>44601</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9093,7 +9192,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>7</v>
+        <v>12.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9130,14 +9229,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 10587-2022</t>
+          <t>A 10184-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44624</v>
+        <v>44622</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9150,7 +9249,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9187,14 +9286,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 13807-2022</t>
+          <t>A 10602-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44649</v>
+        <v>44624</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9207,7 +9306,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9244,14 +9343,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 16371-2022</t>
+          <t>A 10587-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44671</v>
+        <v>44624</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9264,7 +9363,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9301,14 +9400,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 17762-2022</t>
+          <t>A 13807-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44680</v>
+        <v>44649</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9321,7 +9420,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9358,14 +9457,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 19292-2022</t>
+          <t>A 16371-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44692</v>
+        <v>44671</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9378,7 +9477,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9415,14 +9514,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 29606-2022</t>
+          <t>A 17762-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44754</v>
+        <v>44680</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9434,13 +9533,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9477,14 +9571,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 31205-2022</t>
+          <t>A 19292-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44770</v>
+        <v>44692</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9496,13 +9590,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9539,14 +9628,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 31248-2022</t>
+          <t>A 29606-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44771</v>
+        <v>44754</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9564,7 +9653,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9601,14 +9690,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 32330-2022</t>
+          <t>A 31205-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44781</v>
+        <v>44770</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9626,7 +9715,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9663,14 +9752,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 33672-2022</t>
+          <t>A 31248-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44789</v>
+        <v>44771</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9688,7 +9777,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>14.4</v>
+        <v>2.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9725,14 +9814,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 36882-2022</t>
+          <t>A 32330-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44805</v>
+        <v>44781</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9750,7 +9839,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9787,14 +9876,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 37680-2022</t>
+          <t>A 33672-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44810</v>
+        <v>44789</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9806,8 +9895,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>6.6</v>
+        <v>14.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9844,14 +9938,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 37767-2022</t>
+          <t>A 36882-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44810</v>
+        <v>44805</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9869,7 +9963,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.2</v>
+        <v>7.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9906,14 +10000,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 43603-2022</t>
+          <t>A 37680-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44837</v>
+        <v>44810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9925,13 +10019,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>11.9</v>
+        <v>6.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9968,14 +10057,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 43610-2022</t>
+          <t>A 37767-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44837</v>
+        <v>44810</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9993,7 +10082,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>17.6</v>
+        <v>2.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10030,14 +10119,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52320-2022</t>
+          <t>A 43603-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44873</v>
+        <v>44837</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10049,8 +10138,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>6.1</v>
+        <v>11.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10087,14 +10181,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 54192-2022</t>
+          <t>A 43610-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44881</v>
+        <v>44837</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10112,7 +10206,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.4</v>
+        <v>17.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10149,14 +10243,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 54616-2022</t>
+          <t>A 52320-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44883</v>
+        <v>44873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10168,13 +10262,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10211,14 +10300,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 57971-2022</t>
+          <t>A 54192-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44900</v>
+        <v>44881</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10236,7 +10325,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10273,14 +10362,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 6929-2023</t>
+          <t>A 54616-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44967</v>
+        <v>44883</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10292,8 +10381,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10330,14 +10424,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 10161-2023</t>
+          <t>A 57971-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44986</v>
+        <v>44900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10351,11 +10445,11 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10392,14 +10486,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 11607-2023</t>
+          <t>A 6929-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44994</v>
+        <v>44967</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10411,13 +10505,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10454,14 +10543,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 13745-2023</t>
+          <t>A 10161-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45007</v>
+        <v>44986</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10479,7 +10568,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10516,14 +10605,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 13742-2023</t>
+          <t>A 11607-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45007</v>
+        <v>44994</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10541,7 +10630,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10578,14 +10667,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 13744-2023</t>
+          <t>A 13745-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
         <v>45007</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10603,7 +10692,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10640,14 +10729,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 18693-2023</t>
+          <t>A 13742-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45043</v>
+        <v>45007</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10659,8 +10748,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10697,14 +10791,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 18930-2023</t>
+          <t>A 13744-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45044</v>
+        <v>45007</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10716,8 +10810,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10754,14 +10853,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 19476-2023</t>
+          <t>A 18693-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45050</v>
+        <v>45043</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10774,7 +10873,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10811,14 +10910,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 19475-2023</t>
+          <t>A 18930-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45050</v>
+        <v>45044</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10831,7 +10930,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.1</v>
+        <v>5.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10868,14 +10967,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 22129-2023</t>
+          <t>A 19476-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45069</v>
+        <v>45050</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10887,13 +10986,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10930,14 +11024,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 22297-2023</t>
+          <t>A 19475-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45070</v>
+        <v>45050</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10950,7 +11044,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.9</v>
+        <v>2.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10987,14 +11081,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 22787-2023</t>
+          <t>A 22129-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45072</v>
+        <v>45069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11006,8 +11100,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11044,14 +11143,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 22904-2023</t>
+          <t>A 22297-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45072</v>
+        <v>45070</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11064,7 +11163,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.8</v>
+        <v>5.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11101,14 +11200,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 24646-2023</t>
+          <t>A 22787-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45084</v>
+        <v>45072</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11121,7 +11220,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11158,14 +11257,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 27583-2023</t>
+          <t>A 22904-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45097</v>
+        <v>45072</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11178,7 +11277,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11215,14 +11314,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 28058-2023</t>
+          <t>A 24646-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45099</v>
+        <v>45084</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11235,7 +11334,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11272,14 +11371,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 31607-2023</t>
+          <t>A 27583-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45117</v>
+        <v>45097</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11292,7 +11391,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11329,14 +11428,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 31613-2023</t>
+          <t>A 28058-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45117</v>
+        <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11349,7 +11448,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11386,14 +11485,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 31611-2023</t>
+          <t>A 31607-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
         <v>45117</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11406,7 +11505,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11443,14 +11542,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 33495-2023</t>
+          <t>A 31613-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45118</v>
+        <v>45117</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11462,13 +11561,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11505,14 +11599,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 33485-2023</t>
+          <t>A 31611-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45118</v>
+        <v>45117</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11524,13 +11618,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11567,14 +11656,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 31871-2023</t>
+          <t>A 33495-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11586,8 +11675,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11624,14 +11718,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 33483-2023</t>
+          <t>A 33485-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
         <v>45118</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11649,7 +11743,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11686,14 +11780,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 34232-2023</t>
+          <t>A 31871-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45127</v>
+        <v>45118</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11705,13 +11799,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11748,14 +11837,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 35114-2023</t>
+          <t>A 33483-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45145</v>
+        <v>45118</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11767,8 +11856,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>3</v>
+        <v>6.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11805,14 +11899,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 35607-2023</t>
+          <t>A 34232-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45147</v>
+        <v>45127</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11824,8 +11918,13 @@
           <t>HOFORS</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11862,14 +11961,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 38730-2023</t>
+          <t>A 35114-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45163</v>
+        <v>45145</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11881,13 +11980,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>13.6</v>
+        <v>3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11924,14 +12018,14 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 38738-2023</t>
+          <t>A 35607-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45163</v>
+        <v>45147</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11943,13 +12037,8 @@
           <t>HOFORS</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45015</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         <v>44795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45007</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44512</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43635</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>45007</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45163</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43635</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44623</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43581</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44447</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>44741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44816</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44816</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>45050</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>44088</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44323</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44473</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44511</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>45007</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45106</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43472</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43490</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43524</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43556</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43581</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43595</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43601</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43606</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43635</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43635</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43696</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43707</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43710</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43710</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43731</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43738</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43738</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43748</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43752</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43752</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43752</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43752</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43763</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43775</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43775</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43777</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43780</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43795</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43795</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43867</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>43896</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43999</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44000</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44016</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44048</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44049</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44057</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44078</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44083</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>44084</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44092</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>44092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44106</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44130</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44137</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44137</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>44145</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>44159</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>44159</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>44160</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>44167</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>44221</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>44230</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>44266</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>44267</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44340</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44368</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44447</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44447</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44456</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44470</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44473</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>44512</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>44558</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44601</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44622</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44624</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44624</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44649</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44671</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44680</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44692</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44754</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44770</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44771</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44781</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44789</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>44805</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44810</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>44837</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44837</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44881</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44883</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44967</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44986</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44994</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45007</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>45007</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>45007</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>45043</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>45044</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>45050</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>45050</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>45069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>45070</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>45072</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>45072</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>45084</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>45097</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>45117</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>45117</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>45117</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45118</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>45118</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45118</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>45127</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>45145</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>45147</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45015</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         <v>44795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45007</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44512</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43635</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>45007</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45163</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43635</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44623</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43581</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44447</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>44741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44816</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44816</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>45050</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>44088</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44323</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44473</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44511</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>45007</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45106</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43472</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43490</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43524</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43556</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43581</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43595</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43601</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43606</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43635</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43635</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43696</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43707</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43710</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43710</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43731</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43738</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43738</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43748</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43752</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43752</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43752</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43752</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43763</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43775</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43775</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43777</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43780</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43795</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43795</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43867</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>43896</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43999</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44000</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44016</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44048</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44049</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44057</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44078</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44083</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>44084</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44092</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>44092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44106</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44130</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44137</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44137</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>44145</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>44159</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>44159</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>44160</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>44167</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>44221</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>44230</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>44266</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>44267</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44340</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44368</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44447</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44447</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44456</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44470</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44473</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>44512</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>44558</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44601</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44622</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44624</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44624</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44649</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44671</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44680</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44692</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44754</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44770</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44771</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44781</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44789</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>44805</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44810</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>44837</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44837</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44881</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44883</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44967</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44986</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44994</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45007</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>45007</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>45007</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>45043</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>45044</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>45050</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>45050</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>45069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>45070</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>45072</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>45072</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>45084</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>45097</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>45117</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>45117</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>45117</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45118</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>45118</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45118</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>45127</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>45145</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>45147</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45015</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         <v>44795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45007</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44512</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43635</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>45007</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45163</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43635</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44623</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43581</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44447</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>44741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44816</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44816</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>45050</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>44088</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44323</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44473</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44511</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>45007</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45106</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43472</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43490</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43524</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43556</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43581</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43595</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43601</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43606</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43635</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43635</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43696</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43707</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43710</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43710</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43731</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43738</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43738</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43748</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43752</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43752</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43752</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43752</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43763</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43775</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43775</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43777</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43780</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43795</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43795</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43867</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>43896</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43999</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44000</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44016</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44048</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44049</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44057</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44078</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44083</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>44084</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44092</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>44092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44106</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44130</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44137</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44137</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>44145</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>44159</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>44159</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>44160</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>44167</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>44221</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>44230</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>44266</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>44267</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44340</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44368</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44447</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44447</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44456</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44470</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44473</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>44512</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>44558</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44601</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44622</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44624</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44624</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44649</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44671</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44680</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44692</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44754</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44770</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44771</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44781</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44789</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>44805</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44810</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>44837</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44837</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44881</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44883</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44967</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44986</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44994</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45007</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>45007</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>45007</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>45043</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>45044</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>45050</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>45050</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>45069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>45070</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>45072</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>45072</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>45084</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>45097</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>45117</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>45117</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>45117</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45118</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>45118</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45118</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>45127</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>45145</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>45147</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>

--- a/Översikt HOFORS.xlsx
+++ b/Översikt HOFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45015</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         <v>44806</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         <v>44795</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45007</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44512</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43635</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>45007</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45163</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43635</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44623</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43581</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>44447</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>44741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44816</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44816</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>45050</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>43684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>44088</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44323</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44473</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44511</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>45007</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45106</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43472</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43490</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43524</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43556</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43558</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>43564</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43581</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43588</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43595</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43601</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43606</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43635</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43635</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43696</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         <v>43703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43707</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>43710</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>43710</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43718</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>43718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43731</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43738</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43738</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43748</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43752</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43752</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>43752</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43752</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43763</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43775</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43775</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43777</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>43780</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>43781</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43782</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43782</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43795</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43795</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>43867</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43867</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>43889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>43896</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43999</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44000</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>44016</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44048</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44049</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44057</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44078</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44083</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>44084</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>44092</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44092</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44092</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>44092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44106</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44130</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44137</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44137</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>44145</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>44159</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>44159</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>44160</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>44167</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>44186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>44221</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>44230</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>44266</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>44267</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44340</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44368</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44447</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44447</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44456</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44470</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44473</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>44512</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>44558</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44558</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44601</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44622</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44624</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44624</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44649</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44671</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44680</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44692</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44754</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44770</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>44771</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44781</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44789</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>44805</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44810</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44810</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>44837</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44837</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44881</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44883</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44967</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44986</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44994</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45007</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>45007</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>45007</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>45043</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>45044</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>45050</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>45050</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>45069</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>45070</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>45072</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>45072</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>45084</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>45097</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>45099</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>45117</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>45117</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>45117</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>45118</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>45118</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>45118</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>45118</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>45127</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>45145</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>45147</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
